--- a/BackTest/2020-01-25 BackTest AOA.xlsx
+++ b/BackTest/2020-01-25 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.725</v>
+        <v>1.762</v>
       </c>
       <c r="C2" t="n">
-        <v>1.724</v>
+        <v>1.726</v>
       </c>
       <c r="D2" t="n">
-        <v>1.725</v>
+        <v>1.762</v>
       </c>
       <c r="E2" t="n">
-        <v>1.724</v>
+        <v>1.726</v>
       </c>
       <c r="F2" t="n">
-        <v>359937.6832</v>
+        <v>765221</v>
       </c>
       <c r="G2" t="n">
-        <v>1.736449999999998</v>
+        <v>1.736349999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.754</v>
+        <v>1.725</v>
       </c>
       <c r="C3" t="n">
-        <v>1.726</v>
+        <v>1.724</v>
       </c>
       <c r="D3" t="n">
-        <v>1.754</v>
+        <v>1.725</v>
       </c>
       <c r="E3" t="n">
-        <v>1.725</v>
+        <v>1.724</v>
       </c>
       <c r="F3" t="n">
-        <v>1439154.71</v>
+        <v>359937.6832</v>
       </c>
       <c r="G3" t="n">
-        <v>1.736566666666665</v>
+        <v>1.736449999999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.75</v>
+        <v>1.754</v>
       </c>
       <c r="C4" t="n">
-        <v>1.725</v>
+        <v>1.726</v>
       </c>
       <c r="D4" t="n">
         <v>1.754</v>
@@ -515,10 +515,10 @@
         <v>1.725</v>
       </c>
       <c r="F4" t="n">
-        <v>2152342</v>
+        <v>1439154.71</v>
       </c>
       <c r="G4" t="n">
-        <v>1.736649999999998</v>
+        <v>1.736566666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.724</v>
+        <v>1.75</v>
       </c>
       <c r="C5" t="n">
-        <v>1.718</v>
+        <v>1.725</v>
       </c>
       <c r="D5" t="n">
-        <v>1.724</v>
+        <v>1.754</v>
       </c>
       <c r="E5" t="n">
-        <v>1.718</v>
+        <v>1.725</v>
       </c>
       <c r="F5" t="n">
-        <v>335532.2067</v>
+        <v>2152342</v>
       </c>
       <c r="G5" t="n">
-        <v>1.736616666666665</v>
+        <v>1.736649999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.738</v>
+        <v>1.724</v>
       </c>
       <c r="C6" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="D6" t="n">
-        <v>1.738</v>
+        <v>1.724</v>
       </c>
       <c r="E6" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="F6" t="n">
-        <v>2141015</v>
+        <v>335532.2067</v>
       </c>
       <c r="G6" t="n">
         <v>1.736616666666665</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.718</v>
+        <v>1.738</v>
       </c>
       <c r="C7" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="D7" t="n">
-        <v>1.718</v>
+        <v>1.738</v>
       </c>
       <c r="E7" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="F7" t="n">
-        <v>18245.812</v>
+        <v>2141015</v>
       </c>
       <c r="G7" t="n">
-        <v>1.736149999999999</v>
+        <v>1.736616666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>1.718</v>
       </c>
       <c r="C8" t="n">
-        <v>1.717</v>
+        <v>1.718</v>
       </c>
       <c r="D8" t="n">
         <v>1.718</v>
       </c>
       <c r="E8" t="n">
-        <v>1.717</v>
+        <v>1.718</v>
       </c>
       <c r="F8" t="n">
-        <v>648622.416</v>
+        <v>18245.812</v>
       </c>
       <c r="G8" t="n">
-        <v>1.735916666666665</v>
+        <v>1.736149999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.716</v>
+        <v>1.718</v>
       </c>
       <c r="C9" t="n">
-        <v>1.716</v>
+        <v>1.717</v>
       </c>
       <c r="D9" t="n">
-        <v>1.716</v>
+        <v>1.718</v>
       </c>
       <c r="E9" t="n">
-        <v>1.716</v>
+        <v>1.717</v>
       </c>
       <c r="F9" t="n">
-        <v>874.1679</v>
+        <v>648622.416</v>
       </c>
       <c r="G9" t="n">
-        <v>1.735866666666665</v>
+        <v>1.735916666666665</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.717</v>
+        <v>1.716</v>
       </c>
       <c r="C10" t="n">
-        <v>1.717</v>
+        <v>1.716</v>
       </c>
       <c r="D10" t="n">
-        <v>1.717</v>
+        <v>1.716</v>
       </c>
       <c r="E10" t="n">
-        <v>1.717</v>
+        <v>1.716</v>
       </c>
       <c r="F10" t="n">
-        <v>431190</v>
+        <v>874.1679</v>
       </c>
       <c r="G10" t="n">
-        <v>1.735183333333332</v>
+        <v>1.735866666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>1.717</v>
       </c>
       <c r="C11" t="n">
-        <v>1.712</v>
+        <v>1.717</v>
       </c>
       <c r="D11" t="n">
-        <v>1.766</v>
+        <v>1.717</v>
       </c>
       <c r="E11" t="n">
-        <v>1.712</v>
+        <v>1.717</v>
       </c>
       <c r="F11" t="n">
-        <v>2155203</v>
+        <v>431190</v>
       </c>
       <c r="G11" t="n">
-        <v>1.734866666666665</v>
+        <v>1.735183333333332</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.766</v>
+        <v>1.717</v>
       </c>
       <c r="C12" t="n">
-        <v>1.766</v>
+        <v>1.712</v>
       </c>
       <c r="D12" t="n">
         <v>1.766</v>
       </c>
       <c r="E12" t="n">
-        <v>1.721</v>
+        <v>1.712</v>
       </c>
       <c r="F12" t="n">
-        <v>1477023</v>
+        <v>2155203</v>
       </c>
       <c r="G12" t="n">
-        <v>1.734983333333332</v>
+        <v>1.734866666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>1.766</v>
       </c>
       <c r="C13" t="n">
-        <v>1.721</v>
+        <v>1.766</v>
       </c>
       <c r="D13" t="n">
         <v>1.766</v>
@@ -830,10 +830,10 @@
         <v>1.721</v>
       </c>
       <c r="F13" t="n">
-        <v>2492300</v>
+        <v>1477023</v>
       </c>
       <c r="G13" t="n">
-        <v>1.734816666666666</v>
+        <v>1.734983333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>1.721</v>
       </c>
       <c r="F14" t="n">
-        <v>2742201</v>
+        <v>2492300</v>
       </c>
       <c r="G14" t="n">
-        <v>1.734649999999999</v>
+        <v>1.734816666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.758</v>
+        <v>1.766</v>
       </c>
       <c r="C15" t="n">
         <v>1.721</v>
       </c>
       <c r="D15" t="n">
-        <v>1.758</v>
+        <v>1.766</v>
       </c>
       <c r="E15" t="n">
         <v>1.721</v>
       </c>
       <c r="F15" t="n">
-        <v>793459</v>
+        <v>2742201</v>
       </c>
       <c r="G15" t="n">
-        <v>1.734483333333333</v>
+        <v>1.734649999999999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.766</v>
+        <v>1.758</v>
       </c>
       <c r="C16" t="n">
         <v>1.721</v>
       </c>
       <c r="D16" t="n">
-        <v>1.766</v>
+        <v>1.758</v>
       </c>
       <c r="E16" t="n">
         <v>1.721</v>
       </c>
       <c r="F16" t="n">
-        <v>3608127</v>
+        <v>793459</v>
       </c>
       <c r="G16" t="n">
-        <v>1.734316666666666</v>
+        <v>1.734483333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>1.721</v>
       </c>
       <c r="F17" t="n">
-        <v>744709</v>
+        <v>3608127</v>
       </c>
       <c r="G17" t="n">
-        <v>1.73355</v>
+        <v>1.734316666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>1.766</v>
       </c>
       <c r="C18" t="n">
-        <v>1.766</v>
+        <v>1.721</v>
       </c>
       <c r="D18" t="n">
         <v>1.766</v>
       </c>
       <c r="E18" t="n">
-        <v>1.731</v>
+        <v>1.721</v>
       </c>
       <c r="F18" t="n">
-        <v>3180916</v>
+        <v>744709</v>
       </c>
       <c r="G18" t="n">
-        <v>1.733583333333333</v>
+        <v>1.73355</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.731</v>
+        <v>1.766</v>
       </c>
       <c r="C19" t="n">
-        <v>1.731</v>
+        <v>1.766</v>
       </c>
       <c r="D19" t="n">
-        <v>1.731</v>
+        <v>1.766</v>
       </c>
       <c r="E19" t="n">
         <v>1.731</v>
       </c>
       <c r="F19" t="n">
-        <v>477248</v>
+        <v>3180916</v>
       </c>
       <c r="G19" t="n">
         <v>1.733583333333333</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.766</v>
+        <v>1.731</v>
       </c>
       <c r="C20" t="n">
-        <v>1.766</v>
+        <v>1.731</v>
       </c>
       <c r="D20" t="n">
-        <v>1.766</v>
+        <v>1.731</v>
       </c>
       <c r="E20" t="n">
-        <v>1.727</v>
+        <v>1.731</v>
       </c>
       <c r="F20" t="n">
-        <v>1024307</v>
+        <v>477248</v>
       </c>
       <c r="G20" t="n">
-        <v>1.734166666666667</v>
+        <v>1.733583333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.727</v>
+        <v>1.766</v>
       </c>
       <c r="C21" t="n">
-        <v>1.721</v>
+        <v>1.766</v>
       </c>
       <c r="D21" t="n">
         <v>1.766</v>
       </c>
       <c r="E21" t="n">
-        <v>1.721</v>
+        <v>1.727</v>
       </c>
       <c r="F21" t="n">
-        <v>2718945.1761</v>
+        <v>1024307</v>
       </c>
       <c r="G21" t="n">
-        <v>1.734</v>
+        <v>1.734166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.766</v>
+        <v>1.727</v>
       </c>
       <c r="C22" t="n">
-        <v>1.766</v>
+        <v>1.721</v>
       </c>
       <c r="D22" t="n">
         <v>1.766</v>
       </c>
       <c r="E22" t="n">
-        <v>1.732</v>
+        <v>1.721</v>
       </c>
       <c r="F22" t="n">
-        <v>944625</v>
+        <v>2718945.1761</v>
       </c>
       <c r="G22" t="n">
-        <v>1.734583333333334</v>
+        <v>1.734</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,10 +1168,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.732</v>
+        <v>1.766</v>
       </c>
       <c r="C23" t="n">
-        <v>1.732</v>
+        <v>1.766</v>
       </c>
       <c r="D23" t="n">
         <v>1.766</v>
@@ -1180,10 +1180,10 @@
         <v>1.732</v>
       </c>
       <c r="F23" t="n">
-        <v>2571225</v>
+        <v>944625</v>
       </c>
       <c r="G23" t="n">
-        <v>1.734016666666667</v>
+        <v>1.734583333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.767</v>
+        <v>1.732</v>
       </c>
       <c r="C24" t="n">
-        <v>1.767</v>
+        <v>1.732</v>
       </c>
       <c r="D24" t="n">
-        <v>1.767</v>
+        <v>1.766</v>
       </c>
       <c r="E24" t="n">
-        <v>1.767</v>
+        <v>1.732</v>
       </c>
       <c r="F24" t="n">
-        <v>292.8032</v>
+        <v>2571225</v>
       </c>
       <c r="G24" t="n">
-        <v>1.734616666666667</v>
+        <v>1.734016666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.766</v>
+        <v>1.767</v>
       </c>
       <c r="C25" t="n">
-        <v>1.751</v>
+        <v>1.767</v>
       </c>
       <c r="D25" t="n">
-        <v>1.766</v>
+        <v>1.767</v>
       </c>
       <c r="E25" t="n">
-        <v>1.751</v>
+        <v>1.767</v>
       </c>
       <c r="F25" t="n">
-        <v>707729</v>
+        <v>292.8032</v>
       </c>
       <c r="G25" t="n">
-        <v>1.73495</v>
+        <v>1.734616666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>1.766</v>
       </c>
       <c r="C26" t="n">
-        <v>1.748</v>
+        <v>1.751</v>
       </c>
       <c r="D26" t="n">
         <v>1.766</v>
       </c>
       <c r="E26" t="n">
-        <v>1.748</v>
+        <v>1.751</v>
       </c>
       <c r="F26" t="n">
-        <v>2099184</v>
+        <v>707729</v>
       </c>
       <c r="G26" t="n">
-        <v>1.734683333333334</v>
+        <v>1.73495</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>1.748</v>
       </c>
       <c r="F27" t="n">
-        <v>1312322</v>
+        <v>2099184</v>
       </c>
       <c r="G27" t="n">
-        <v>1.734966666666667</v>
+        <v>1.734683333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.764</v>
+        <v>1.766</v>
       </c>
       <c r="C28" t="n">
         <v>1.748</v>
       </c>
       <c r="D28" t="n">
-        <v>1.764</v>
+        <v>1.766</v>
       </c>
       <c r="E28" t="n">
         <v>1.748</v>
       </c>
       <c r="F28" t="n">
-        <v>718720</v>
+        <v>1312322</v>
       </c>
       <c r="G28" t="n">
-        <v>1.734700000000001</v>
+        <v>1.734966666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>1.764</v>
       </c>
       <c r="C29" t="n">
-        <v>1.713</v>
+        <v>1.748</v>
       </c>
       <c r="D29" t="n">
         <v>1.764</v>
       </c>
       <c r="E29" t="n">
-        <v>1.713</v>
+        <v>1.748</v>
       </c>
       <c r="F29" t="n">
-        <v>2895165.1006</v>
+        <v>718720</v>
       </c>
       <c r="G29" t="n">
-        <v>1.734400000000001</v>
+        <v>1.734700000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.721</v>
+        <v>1.764</v>
       </c>
       <c r="C30" t="n">
-        <v>1.747</v>
+        <v>1.713</v>
       </c>
       <c r="D30" t="n">
-        <v>1.747</v>
+        <v>1.764</v>
       </c>
       <c r="E30" t="n">
-        <v>1.721</v>
+        <v>1.713</v>
       </c>
       <c r="F30" t="n">
-        <v>22057.814</v>
+        <v>2895165.1006</v>
       </c>
       <c r="G30" t="n">
-        <v>1.734650000000001</v>
+        <v>1.734400000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="C31" t="n">
         <v>1.747</v>
       </c>
-      <c r="C31" t="n">
-        <v>1.753</v>
-      </c>
       <c r="D31" t="n">
-        <v>1.753</v>
+        <v>1.747</v>
       </c>
       <c r="E31" t="n">
-        <v>1.747</v>
+        <v>1.721</v>
       </c>
       <c r="F31" t="n">
-        <v>4940.1192</v>
+        <v>22057.814</v>
       </c>
       <c r="G31" t="n">
-        <v>1.735016666666668</v>
+        <v>1.734650000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C32" t="n">
         <v>1.753</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.752</v>
       </c>
       <c r="D32" t="n">
         <v>1.753</v>
       </c>
       <c r="E32" t="n">
-        <v>1.725</v>
+        <v>1.747</v>
       </c>
       <c r="F32" t="n">
-        <v>1002336.9549</v>
+        <v>4940.1192</v>
       </c>
       <c r="G32" t="n">
-        <v>1.734783333333334</v>
+        <v>1.735016666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="E33" t="n">
         <v>1.725</v>
       </c>
-      <c r="C33" t="n">
-        <v>1.721</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.721</v>
-      </c>
       <c r="F33" t="n">
-        <v>1907678.9262</v>
+        <v>1002336.9549</v>
       </c>
       <c r="G33" t="n">
-        <v>1.734616666666668</v>
+        <v>1.734783333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.752</v>
+        <v>1.725</v>
       </c>
       <c r="C34" t="n">
-        <v>1.739</v>
+        <v>1.721</v>
       </c>
       <c r="D34" t="n">
         <v>1.752</v>
       </c>
       <c r="E34" t="n">
-        <v>1.722</v>
+        <v>1.721</v>
       </c>
       <c r="F34" t="n">
-        <v>1673444.4727</v>
+        <v>1907678.9262</v>
       </c>
       <c r="G34" t="n">
-        <v>1.734166666666668</v>
+        <v>1.734616666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.739</v>
+        <v>1.752</v>
       </c>
       <c r="C35" t="n">
         <v>1.739</v>
       </c>
       <c r="D35" t="n">
-        <v>1.739</v>
+        <v>1.752</v>
       </c>
       <c r="E35" t="n">
-        <v>1.739</v>
+        <v>1.722</v>
       </c>
       <c r="F35" t="n">
-        <v>1651.4886</v>
+        <v>1673444.4727</v>
       </c>
       <c r="G35" t="n">
-        <v>1.734300000000001</v>
+        <v>1.734166666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>1.739</v>
       </c>
       <c r="F36" t="n">
-        <v>645.9392</v>
+        <v>1651.4886</v>
       </c>
       <c r="G36" t="n">
-        <v>1.733850000000001</v>
+        <v>1.734300000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>1.739</v>
       </c>
       <c r="F37" t="n">
-        <v>657.0771999999999</v>
+        <v>645.9392</v>
       </c>
       <c r="G37" t="n">
-        <v>1.734066666666668</v>
+        <v>1.733850000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>1.739</v>
       </c>
       <c r="C38" t="n">
-        <v>1.724</v>
+        <v>1.739</v>
       </c>
       <c r="D38" t="n">
         <v>1.739</v>
       </c>
       <c r="E38" t="n">
-        <v>1.724</v>
+        <v>1.739</v>
       </c>
       <c r="F38" t="n">
-        <v>4524.2059</v>
+        <v>657.0771999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>1.733366666666668</v>
+        <v>1.734066666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.722</v>
+        <v>1.739</v>
       </c>
       <c r="C39" t="n">
-        <v>1.722</v>
+        <v>1.724</v>
       </c>
       <c r="D39" t="n">
-        <v>1.722</v>
+        <v>1.739</v>
       </c>
       <c r="E39" t="n">
-        <v>1.722</v>
+        <v>1.724</v>
       </c>
       <c r="F39" t="n">
-        <v>3845.5371</v>
+        <v>4524.2059</v>
       </c>
       <c r="G39" t="n">
-        <v>1.733216666666668</v>
+        <v>1.733366666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="C40" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="D40" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="E40" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="F40" t="n">
-        <v>29895.5368</v>
+        <v>3845.5371</v>
       </c>
       <c r="G40" t="n">
-        <v>1.733050000000001</v>
+        <v>1.733216666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.738</v>
+        <v>1.721</v>
       </c>
       <c r="C41" t="n">
-        <v>1.722</v>
+        <v>1.721</v>
       </c>
       <c r="D41" t="n">
-        <v>1.738</v>
+        <v>1.721</v>
       </c>
       <c r="E41" t="n">
-        <v>1.722</v>
+        <v>1.721</v>
       </c>
       <c r="F41" t="n">
-        <v>622577</v>
+        <v>29895.5368</v>
       </c>
       <c r="G41" t="n">
-        <v>1.732900000000001</v>
+        <v>1.733050000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>1.722</v>
       </c>
       <c r="F42" t="n">
-        <v>2955262</v>
+        <v>622577</v>
       </c>
       <c r="G42" t="n">
-        <v>1.732166666666668</v>
+        <v>1.732900000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>1.738</v>
       </c>
       <c r="C43" t="n">
-        <v>1.738</v>
+        <v>1.722</v>
       </c>
       <c r="D43" t="n">
         <v>1.738</v>
@@ -1880,10 +1880,10 @@
         <v>1.722</v>
       </c>
       <c r="F43" t="n">
-        <v>840708.0169</v>
+        <v>2955262</v>
       </c>
       <c r="G43" t="n">
-        <v>1.732283333333335</v>
+        <v>1.732166666666668</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1906,19 @@
         <v>1.738</v>
       </c>
       <c r="C44" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="D44" t="n">
-        <v>1.739</v>
+        <v>1.738</v>
       </c>
       <c r="E44" t="n">
         <v>1.722</v>
       </c>
       <c r="F44" t="n">
-        <v>2799345.0607</v>
+        <v>840708.0169</v>
       </c>
       <c r="G44" t="n">
-        <v>1.731683333333334</v>
+        <v>1.732283333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.73</v>
+        <v>1.738</v>
       </c>
       <c r="C45" t="n">
         <v>1.73</v>
       </c>
       <c r="D45" t="n">
-        <v>1.73</v>
+        <v>1.739</v>
       </c>
       <c r="E45" t="n">
-        <v>1.73</v>
+        <v>1.722</v>
       </c>
       <c r="F45" t="n">
-        <v>1764.6377</v>
+        <v>2799345.0607</v>
       </c>
       <c r="G45" t="n">
-        <v>1.731666666666668</v>
+        <v>1.731683333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>1.73</v>
       </c>
       <c r="F46" t="n">
-        <v>2120.492</v>
+        <v>1764.6377</v>
       </c>
       <c r="G46" t="n">
         <v>1.731666666666668</v>
@@ -2020,10 +2020,10 @@
         <v>1.73</v>
       </c>
       <c r="F47" t="n">
-        <v>2025.5638</v>
+        <v>2120.492</v>
       </c>
       <c r="G47" t="n">
-        <v>1.731733333333335</v>
+        <v>1.731666666666668</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>1.73</v>
       </c>
       <c r="F48" t="n">
-        <v>335.0583</v>
+        <v>2025.5638</v>
       </c>
       <c r="G48" t="n">
         <v>1.731733333333335</v>
@@ -2090,10 +2090,10 @@
         <v>1.73</v>
       </c>
       <c r="F49" t="n">
-        <v>371.2582</v>
+        <v>335.0583</v>
       </c>
       <c r="G49" t="n">
-        <v>1.731883333333335</v>
+        <v>1.731733333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>1.73</v>
       </c>
       <c r="F50" t="n">
-        <v>14127.8668</v>
+        <v>371.2582</v>
       </c>
       <c r="G50" t="n">
-        <v>1.732050000000001</v>
+        <v>1.731883333333335</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>1.73</v>
       </c>
       <c r="F51" t="n">
-        <v>11000</v>
+        <v>14127.8668</v>
       </c>
       <c r="G51" t="n">
-        <v>1.732133333333335</v>
+        <v>1.732050000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>1.73</v>
       </c>
       <c r="F52" t="n">
-        <v>179.6966</v>
+        <v>11000</v>
       </c>
       <c r="G52" t="n">
-        <v>1.732216666666669</v>
+        <v>1.732133333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="C53" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="D53" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="E53" t="n">
-        <v>1.729</v>
+        <v>1.73</v>
       </c>
       <c r="F53" t="n">
-        <v>90251.3492</v>
+        <v>179.6966</v>
       </c>
       <c r="G53" t="n">
-        <v>1.732283333333335</v>
+        <v>1.732216666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="C54" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="D54" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="E54" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="F54" t="n">
-        <v>29492.8845</v>
+        <v>90251.3492</v>
       </c>
       <c r="G54" t="n">
-        <v>1.732366666666669</v>
+        <v>1.732283333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="C55" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="D55" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="E55" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="F55" t="n">
-        <v>288</v>
+        <v>29492.8845</v>
       </c>
       <c r="G55" t="n">
-        <v>1.732566666666669</v>
+        <v>1.732366666666669</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.726</v>
+        <v>1.737</v>
       </c>
       <c r="C56" t="n">
-        <v>1.726</v>
+        <v>1.737</v>
       </c>
       <c r="D56" t="n">
-        <v>1.726</v>
+        <v>1.737</v>
       </c>
       <c r="E56" t="n">
-        <v>1.726</v>
+        <v>1.737</v>
       </c>
       <c r="F56" t="n">
-        <v>1000.8986</v>
+        <v>288</v>
       </c>
       <c r="G56" t="n">
-        <v>1.732583333333335</v>
+        <v>1.732566666666669</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>1.726</v>
       </c>
       <c r="F57" t="n">
-        <v>71265.2605</v>
+        <v>1000.8986</v>
       </c>
       <c r="G57" t="n">
-        <v>1.732600000000002</v>
+        <v>1.732583333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.725</v>
+        <v>1.726</v>
       </c>
       <c r="C58" t="n">
-        <v>1.725</v>
+        <v>1.726</v>
       </c>
       <c r="D58" t="n">
-        <v>1.725</v>
+        <v>1.726</v>
       </c>
       <c r="E58" t="n">
-        <v>1.725</v>
+        <v>1.726</v>
       </c>
       <c r="F58" t="n">
-        <v>897.5616</v>
+        <v>71265.2605</v>
       </c>
       <c r="G58" t="n">
-        <v>1.732583333333335</v>
+        <v>1.732600000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,19 +2440,23 @@
         <v>1.725</v>
       </c>
       <c r="F59" t="n">
-        <v>153045.5342</v>
+        <v>897.5616</v>
       </c>
       <c r="G59" t="n">
-        <v>1.731966666666669</v>
+        <v>1.732583333333335</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.726</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
@@ -2466,16 +2470,16 @@
         <v>1.725</v>
       </c>
       <c r="C60" t="n">
-        <v>1.726</v>
+        <v>1.725</v>
       </c>
       <c r="D60" t="n">
-        <v>1.726</v>
+        <v>1.725</v>
       </c>
       <c r="E60" t="n">
         <v>1.725</v>
       </c>
       <c r="F60" t="n">
-        <v>639457.5074999999</v>
+        <v>153045.5342</v>
       </c>
       <c r="G60" t="n">
         <v>1.731966666666669</v>
@@ -2487,8 +2491,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2508,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.727</v>
+        <v>1.725</v>
       </c>
       <c r="C61" t="n">
-        <v>1.737</v>
+        <v>1.726</v>
       </c>
       <c r="D61" t="n">
-        <v>1.737</v>
+        <v>1.726</v>
       </c>
       <c r="E61" t="n">
-        <v>1.727</v>
+        <v>1.725</v>
       </c>
       <c r="F61" t="n">
-        <v>300</v>
+        <v>639457.5074999999</v>
       </c>
       <c r="G61" t="n">
-        <v>1.732150000000002</v>
+        <v>1.731966666666669</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2532,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.73</v>
+        <v>1.727</v>
       </c>
       <c r="C62" t="n">
-        <v>1.73</v>
+        <v>1.737</v>
       </c>
       <c r="D62" t="n">
-        <v>1.73</v>
+        <v>1.737</v>
       </c>
       <c r="E62" t="n">
-        <v>1.73</v>
+        <v>1.727</v>
       </c>
       <c r="F62" t="n">
-        <v>299043.7451</v>
+        <v>300</v>
       </c>
       <c r="G62" t="n">
-        <v>1.732250000000002</v>
+        <v>1.732150000000002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2573,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2590,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.737</v>
+        <v>1.73</v>
       </c>
       <c r="C63" t="n">
-        <v>1.758</v>
+        <v>1.73</v>
       </c>
       <c r="D63" t="n">
-        <v>1.758</v>
+        <v>1.73</v>
       </c>
       <c r="E63" t="n">
-        <v>1.723</v>
+        <v>1.73</v>
       </c>
       <c r="F63" t="n">
-        <v>972521.5087</v>
+        <v>299043.7451</v>
       </c>
       <c r="G63" t="n">
-        <v>1.732783333333335</v>
+        <v>1.732250000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2614,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2631,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.76</v>
+        <v>1.737</v>
       </c>
       <c r="C64" t="n">
-        <v>1.765</v>
+        <v>1.758</v>
       </c>
       <c r="D64" t="n">
-        <v>1.768</v>
+        <v>1.758</v>
       </c>
       <c r="E64" t="n">
-        <v>1.76</v>
+        <v>1.723</v>
       </c>
       <c r="F64" t="n">
-        <v>302997.1208</v>
+        <v>972521.5087</v>
       </c>
       <c r="G64" t="n">
-        <v>1.733450000000002</v>
+        <v>1.732783333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2655,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2672,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.778</v>
+        <v>1.76</v>
       </c>
       <c r="C65" t="n">
-        <v>1.731</v>
+        <v>1.765</v>
       </c>
       <c r="D65" t="n">
-        <v>1.778</v>
+        <v>1.768</v>
       </c>
       <c r="E65" t="n">
-        <v>1.731</v>
+        <v>1.76</v>
       </c>
       <c r="F65" t="n">
-        <v>1427437</v>
+        <v>302997.1208</v>
       </c>
       <c r="G65" t="n">
-        <v>1.733666666666668</v>
+        <v>1.733450000000002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2696,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2725,10 @@
         <v>1.731</v>
       </c>
       <c r="F66" t="n">
-        <v>2214294</v>
+        <v>1427437</v>
       </c>
       <c r="G66" t="n">
-        <v>1.733866666666668</v>
+        <v>1.733666666666668</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2737,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2754,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.74</v>
+        <v>1.778</v>
       </c>
       <c r="C67" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="D67" t="n">
-        <v>1.74</v>
+        <v>1.778</v>
       </c>
       <c r="E67" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="F67" t="n">
-        <v>163061.5914</v>
+        <v>2214294</v>
       </c>
       <c r="G67" t="n">
-        <v>1.734233333333335</v>
+        <v>1.733866666666668</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2807,10 @@
         <v>1.74</v>
       </c>
       <c r="F68" t="n">
-        <v>288</v>
+        <v>163061.5914</v>
       </c>
       <c r="G68" t="n">
-        <v>1.734616666666668</v>
+        <v>1.734233333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +2819,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2836,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="C69" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="D69" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="E69" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="F69" t="n">
-        <v>4217.6626</v>
+        <v>288</v>
       </c>
       <c r="G69" t="n">
-        <v>1.734866666666668</v>
+        <v>1.734616666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +2860,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2816,19 +2880,19 @@
         <v>1.731</v>
       </c>
       <c r="C70" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="D70" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="E70" t="n">
         <v>1.731</v>
       </c>
       <c r="F70" t="n">
-        <v>65514.5485</v>
+        <v>4217.6626</v>
       </c>
       <c r="G70" t="n">
-        <v>1.735250000000002</v>
+        <v>1.734866666666668</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +2901,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2921,19 @@
         <v>1.731</v>
       </c>
       <c r="C71" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="D71" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="E71" t="n">
         <v>1.731</v>
       </c>
       <c r="F71" t="n">
-        <v>37967.6072</v>
+        <v>65514.5485</v>
       </c>
       <c r="G71" t="n">
-        <v>1.735566666666668</v>
+        <v>1.735250000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +2942,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +2971,10 @@
         <v>1.731</v>
       </c>
       <c r="F72" t="n">
-        <v>32.3928</v>
+        <v>37967.6072</v>
       </c>
       <c r="G72" t="n">
-        <v>1.734983333333335</v>
+        <v>1.735566666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +2983,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3000,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="C73" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="D73" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="E73" t="n">
-        <v>1.74</v>
+        <v>1.731</v>
       </c>
       <c r="F73" t="n">
-        <v>3751.7847</v>
+        <v>32.3928</v>
       </c>
       <c r="G73" t="n">
-        <v>1.735300000000001</v>
+        <v>1.734983333333335</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3024,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3041,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="C74" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="D74" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="E74" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="F74" t="n">
-        <v>3329.0723</v>
+        <v>3751.7847</v>
       </c>
       <c r="G74" t="n">
-        <v>1.735600000000001</v>
+        <v>1.735300000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2991,19 +3085,19 @@
         <v>1.739</v>
       </c>
       <c r="C75" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="D75" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="E75" t="n">
         <v>1.739</v>
       </c>
       <c r="F75" t="n">
-        <v>599</v>
+        <v>3329.0723</v>
       </c>
       <c r="G75" t="n">
-        <v>1.735916666666668</v>
+        <v>1.735600000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3106,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3026,19 +3126,19 @@
         <v>1.739</v>
       </c>
       <c r="C76" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="D76" t="n">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="E76" t="n">
         <v>1.739</v>
       </c>
       <c r="F76" t="n">
-        <v>862</v>
+        <v>599</v>
       </c>
       <c r="G76" t="n">
-        <v>1.736216666666668</v>
+        <v>1.735916666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3147,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3176,10 @@
         <v>1.739</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4681</v>
+        <v>862</v>
       </c>
       <c r="G77" t="n">
-        <v>1.736516666666668</v>
+        <v>1.736216666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3188,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3102,13 +3214,13 @@
         <v>1.739</v>
       </c>
       <c r="E78" t="n">
-        <v>1.724</v>
+        <v>1.739</v>
       </c>
       <c r="F78" t="n">
-        <v>1630678</v>
+        <v>0.4681</v>
       </c>
       <c r="G78" t="n">
-        <v>1.736066666666668</v>
+        <v>1.736516666666668</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3229,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,10 +3246,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.724</v>
+        <v>1.739</v>
       </c>
       <c r="C79" t="n">
-        <v>1.724</v>
+        <v>1.739</v>
       </c>
       <c r="D79" t="n">
         <v>1.739</v>
@@ -3140,10 +3258,10 @@
         <v>1.724</v>
       </c>
       <c r="F79" t="n">
-        <v>2688198</v>
+        <v>1630678</v>
       </c>
       <c r="G79" t="n">
-        <v>1.735950000000001</v>
+        <v>1.736066666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3270,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,22 +3287,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.73</v>
+        <v>1.724</v>
       </c>
       <c r="C80" t="n">
-        <v>1.738</v>
+        <v>1.724</v>
       </c>
       <c r="D80" t="n">
-        <v>1.738</v>
+        <v>1.739</v>
       </c>
       <c r="E80" t="n">
-        <v>1.73</v>
+        <v>1.724</v>
       </c>
       <c r="F80" t="n">
-        <v>24465.9574</v>
+        <v>2688198</v>
       </c>
       <c r="G80" t="n">
-        <v>1.735483333333334</v>
+        <v>1.735950000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3311,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3328,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="C81" t="n">
-        <v>1.739</v>
+        <v>1.738</v>
       </c>
       <c r="D81" t="n">
-        <v>1.74</v>
+        <v>1.738</v>
       </c>
       <c r="E81" t="n">
-        <v>1.723</v>
+        <v>1.73</v>
       </c>
       <c r="F81" t="n">
-        <v>3313832.6084</v>
+        <v>24465.9574</v>
       </c>
       <c r="G81" t="n">
-        <v>1.735783333333334</v>
+        <v>1.735483333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3352,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3369,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.723</v>
+        <v>1.74</v>
       </c>
       <c r="C82" t="n">
-        <v>1.723</v>
+        <v>1.739</v>
       </c>
       <c r="D82" t="n">
-        <v>1.723</v>
+        <v>1.74</v>
       </c>
       <c r="E82" t="n">
         <v>1.723</v>
       </c>
       <c r="F82" t="n">
-        <v>505762</v>
+        <v>3313832.6084</v>
       </c>
       <c r="G82" t="n">
-        <v>1.735066666666668</v>
+        <v>1.735783333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3393,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3410,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.739</v>
+        <v>1.723</v>
       </c>
       <c r="C83" t="n">
-        <v>1.739</v>
+        <v>1.723</v>
       </c>
       <c r="D83" t="n">
-        <v>1.739</v>
+        <v>1.723</v>
       </c>
       <c r="E83" t="n">
-        <v>1.739</v>
+        <v>1.723</v>
       </c>
       <c r="F83" t="n">
-        <v>2927</v>
+        <v>505762</v>
       </c>
       <c r="G83" t="n">
-        <v>1.735183333333334</v>
+        <v>1.735066666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3451,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.757</v>
+        <v>1.739</v>
       </c>
       <c r="C84" t="n">
-        <v>1.778</v>
+        <v>1.739</v>
       </c>
       <c r="D84" t="n">
-        <v>1.778</v>
+        <v>1.739</v>
       </c>
       <c r="E84" t="n">
-        <v>1.757</v>
+        <v>1.739</v>
       </c>
       <c r="F84" t="n">
-        <v>1610.2663</v>
+        <v>2927</v>
       </c>
       <c r="G84" t="n">
-        <v>1.735366666666668</v>
+        <v>1.735183333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3475,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3492,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.775</v>
+        <v>1.757</v>
       </c>
       <c r="C85" t="n">
-        <v>1.741</v>
+        <v>1.778</v>
       </c>
       <c r="D85" t="n">
-        <v>1.775</v>
+        <v>1.778</v>
       </c>
       <c r="E85" t="n">
-        <v>1.741</v>
+        <v>1.757</v>
       </c>
       <c r="F85" t="n">
-        <v>1823688</v>
+        <v>1610.2663</v>
       </c>
       <c r="G85" t="n">
-        <v>1.735200000000001</v>
+        <v>1.735366666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3516,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3533,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C86" t="n">
         <v>1.741</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.732</v>
       </c>
       <c r="D86" t="n">
         <v>1.775</v>
       </c>
       <c r="E86" t="n">
-        <v>1.732</v>
+        <v>1.741</v>
       </c>
       <c r="F86" t="n">
-        <v>1739288</v>
+        <v>1823688</v>
       </c>
       <c r="G86" t="n">
-        <v>1.734933333333334</v>
+        <v>1.735200000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3557,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3574,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.74</v>
+        <v>1.741</v>
       </c>
       <c r="C87" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="D87" t="n">
-        <v>1.74</v>
+        <v>1.775</v>
       </c>
       <c r="E87" t="n">
-        <v>1.74</v>
+        <v>1.732</v>
       </c>
       <c r="F87" t="n">
-        <v>11251.6238</v>
+        <v>1739288</v>
       </c>
       <c r="G87" t="n">
-        <v>1.734800000000001</v>
+        <v>1.734933333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,10 +3598,16 @@
         <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0.9984762456546928</v>
       </c>
     </row>
     <row r="88">
@@ -3443,22 +3615,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="C88" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="D88" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="E88" t="n">
-        <v>1.734</v>
+        <v>1.74</v>
       </c>
       <c r="F88" t="n">
-        <v>5104.9423</v>
+        <v>11251.6238</v>
       </c>
       <c r="G88" t="n">
-        <v>1.734566666666667</v>
+        <v>1.734800000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3650,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.74</v>
+        <v>1.734</v>
       </c>
       <c r="C89" t="n">
-        <v>1.74</v>
+        <v>1.734</v>
       </c>
       <c r="D89" t="n">
-        <v>1.74</v>
+        <v>1.734</v>
       </c>
       <c r="E89" t="n">
-        <v>1.74</v>
+        <v>1.734</v>
       </c>
       <c r="F89" t="n">
-        <v>403.7839</v>
+        <v>5104.9423</v>
       </c>
       <c r="G89" t="n">
-        <v>1.735016666666667</v>
+        <v>1.734566666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3697,10 @@
         <v>1.74</v>
       </c>
       <c r="F90" t="n">
-        <v>391.6702</v>
+        <v>403.7839</v>
       </c>
       <c r="G90" t="n">
-        <v>1.734900000000001</v>
+        <v>1.735016666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3732,10 @@
         <v>1.74</v>
       </c>
       <c r="F91" t="n">
-        <v>60000</v>
+        <v>391.6702</v>
       </c>
       <c r="G91" t="n">
-        <v>1.734683333333334</v>
+        <v>1.734900000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3767,10 @@
         <v>1.74</v>
       </c>
       <c r="F92" t="n">
-        <v>288</v>
+        <v>60000</v>
       </c>
       <c r="G92" t="n">
-        <v>1.734483333333334</v>
+        <v>1.734683333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3802,10 @@
         <v>1.74</v>
       </c>
       <c r="F93" t="n">
-        <v>5100.5933</v>
+        <v>288</v>
       </c>
       <c r="G93" t="n">
-        <v>1.7348</v>
+        <v>1.734483333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3837,10 @@
         <v>1.74</v>
       </c>
       <c r="F94" t="n">
-        <v>288</v>
+        <v>5100.5933</v>
       </c>
       <c r="G94" t="n">
-        <v>1.734816666666667</v>
+        <v>1.7348</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3863,19 @@
         <v>1.74</v>
       </c>
       <c r="C95" t="n">
-        <v>1.758</v>
+        <v>1.74</v>
       </c>
       <c r="D95" t="n">
-        <v>1.758</v>
+        <v>1.74</v>
       </c>
       <c r="E95" t="n">
         <v>1.74</v>
       </c>
       <c r="F95" t="n">
-        <v>36395.6326</v>
+        <v>288</v>
       </c>
       <c r="G95" t="n">
-        <v>1.735133333333333</v>
+        <v>1.734816666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3895,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.769</v>
+        <v>1.74</v>
       </c>
       <c r="C96" t="n">
-        <v>1.723</v>
+        <v>1.758</v>
       </c>
       <c r="D96" t="n">
-        <v>1.778</v>
+        <v>1.758</v>
       </c>
       <c r="E96" t="n">
-        <v>1.723</v>
+        <v>1.74</v>
       </c>
       <c r="F96" t="n">
-        <v>2334640</v>
+        <v>36395.6326</v>
       </c>
       <c r="G96" t="n">
-        <v>1.734866666666667</v>
+        <v>1.735133333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,7 +3930,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.778</v>
+        <v>1.769</v>
       </c>
       <c r="C97" t="n">
         <v>1.723</v>
@@ -3770,10 +3942,10 @@
         <v>1.723</v>
       </c>
       <c r="F97" t="n">
-        <v>1317151</v>
+        <v>2334640</v>
       </c>
       <c r="G97" t="n">
-        <v>1.7346</v>
+        <v>1.734866666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3965,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.765</v>
+        <v>1.778</v>
       </c>
       <c r="C98" t="n">
-        <v>1.765</v>
+        <v>1.723</v>
       </c>
       <c r="D98" t="n">
-        <v>1.765</v>
+        <v>1.778</v>
       </c>
       <c r="E98" t="n">
-        <v>1.765</v>
+        <v>1.723</v>
       </c>
       <c r="F98" t="n">
-        <v>304.4687</v>
+        <v>1317151</v>
       </c>
       <c r="G98" t="n">
-        <v>1.735283333333333</v>
+        <v>1.7346</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,25 +4003,25 @@
         <v>1.765</v>
       </c>
       <c r="C99" t="n">
-        <v>1.778</v>
+        <v>1.765</v>
       </c>
       <c r="D99" t="n">
-        <v>1.778</v>
+        <v>1.765</v>
       </c>
       <c r="E99" t="n">
-        <v>1.724</v>
+        <v>1.765</v>
       </c>
       <c r="F99" t="n">
-        <v>783601.1152</v>
+        <v>304.4687</v>
       </c>
       <c r="G99" t="n">
-        <v>1.736216666666667</v>
+        <v>1.735283333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3863,10 +4035,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C100" t="n">
         <v>1.778</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.724</v>
       </c>
       <c r="D100" t="n">
         <v>1.778</v>
@@ -3875,10 +4047,10 @@
         <v>1.724</v>
       </c>
       <c r="F100" t="n">
-        <v>2740367.44</v>
+        <v>783601.1152</v>
       </c>
       <c r="G100" t="n">
-        <v>1.736266666666667</v>
+        <v>1.736216666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4070,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.769</v>
+        <v>1.778</v>
       </c>
       <c r="C101" t="n">
-        <v>1.769</v>
+        <v>1.724</v>
       </c>
       <c r="D101" t="n">
-        <v>1.769</v>
+        <v>1.778</v>
       </c>
       <c r="E101" t="n">
-        <v>1.769</v>
+        <v>1.724</v>
       </c>
       <c r="F101" t="n">
-        <v>309.3011</v>
+        <v>2740367.44</v>
       </c>
       <c r="G101" t="n">
-        <v>1.73705</v>
+        <v>1.736266666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4105,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="C102" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="D102" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="E102" t="n">
-        <v>1.768</v>
+        <v>1.769</v>
       </c>
       <c r="F102" t="n">
-        <v>283</v>
+        <v>309.3011</v>
       </c>
       <c r="G102" t="n">
-        <v>1.737816666666667</v>
+        <v>1.73705</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4140,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.765</v>
+        <v>1.768</v>
       </c>
       <c r="C103" t="n">
-        <v>1.765</v>
+        <v>1.768</v>
       </c>
       <c r="D103" t="n">
-        <v>1.765</v>
+        <v>1.768</v>
       </c>
       <c r="E103" t="n">
-        <v>1.765</v>
+        <v>1.768</v>
       </c>
       <c r="F103" t="n">
-        <v>293.9683</v>
+        <v>283</v>
       </c>
       <c r="G103" t="n">
-        <v>1.738266666666667</v>
+        <v>1.737816666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4178,19 @@
         <v>1.765</v>
       </c>
       <c r="C104" t="n">
-        <v>1.722</v>
+        <v>1.765</v>
       </c>
       <c r="D104" t="n">
-        <v>1.778</v>
+        <v>1.765</v>
       </c>
       <c r="E104" t="n">
-        <v>1.721</v>
+        <v>1.765</v>
       </c>
       <c r="F104" t="n">
-        <v>1471542.1195</v>
+        <v>293.9683</v>
       </c>
       <c r="G104" t="n">
-        <v>1.738133333333334</v>
+        <v>1.738266666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4210,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.778</v>
+        <v>1.765</v>
       </c>
       <c r="C105" t="n">
-        <v>1.724</v>
+        <v>1.722</v>
       </c>
       <c r="D105" t="n">
         <v>1.778</v>
       </c>
       <c r="E105" t="n">
-        <v>1.722</v>
+        <v>1.721</v>
       </c>
       <c r="F105" t="n">
-        <v>2103742.88</v>
+        <v>1471542.1195</v>
       </c>
       <c r="G105" t="n">
-        <v>1.738033333333334</v>
+        <v>1.738133333333334</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4245,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.747</v>
+        <v>1.778</v>
       </c>
       <c r="C106" t="n">
-        <v>1.747</v>
+        <v>1.724</v>
       </c>
       <c r="D106" t="n">
-        <v>1.747</v>
+        <v>1.778</v>
       </c>
       <c r="E106" t="n">
-        <v>1.731</v>
+        <v>1.722</v>
       </c>
       <c r="F106" t="n">
-        <v>1490682.44</v>
+        <v>2103742.88</v>
       </c>
       <c r="G106" t="n">
-        <v>1.738316666666667</v>
+        <v>1.738033333333334</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4280,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.746</v>
+        <v>1.747</v>
       </c>
       <c r="C107" t="n">
-        <v>1.731</v>
+        <v>1.747</v>
       </c>
       <c r="D107" t="n">
-        <v>1.746</v>
+        <v>1.747</v>
       </c>
       <c r="E107" t="n">
         <v>1.731</v>
       </c>
       <c r="F107" t="n">
-        <v>1246893</v>
+        <v>1490682.44</v>
       </c>
       <c r="G107" t="n">
-        <v>1.738333333333333</v>
+        <v>1.738316666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4327,10 @@
         <v>1.731</v>
       </c>
       <c r="F108" t="n">
-        <v>658956</v>
+        <v>1246893</v>
       </c>
       <c r="G108" t="n">
-        <v>1.73835</v>
+        <v>1.738333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4350,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.729</v>
+        <v>1.746</v>
       </c>
       <c r="C109" t="n">
-        <v>1.722</v>
+        <v>1.731</v>
       </c>
       <c r="D109" t="n">
-        <v>1.729</v>
+        <v>1.746</v>
       </c>
       <c r="E109" t="n">
-        <v>1.722</v>
+        <v>1.731</v>
       </c>
       <c r="F109" t="n">
-        <v>555024.8391</v>
+        <v>658956</v>
       </c>
       <c r="G109" t="n">
-        <v>1.738216666666666</v>
+        <v>1.73835</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4385,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.722</v>
+        <v>1.729</v>
       </c>
       <c r="C110" t="n">
         <v>1.722</v>
       </c>
       <c r="D110" t="n">
-        <v>1.722</v>
+        <v>1.729</v>
       </c>
       <c r="E110" t="n">
         <v>1.722</v>
       </c>
       <c r="F110" t="n">
-        <v>21463.9301</v>
+        <v>555024.8391</v>
       </c>
       <c r="G110" t="n">
-        <v>1.738083333333333</v>
+        <v>1.738216666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4420,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="C111" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="D111" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="E111" t="n">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="F111" t="n">
-        <v>5899.6183</v>
+        <v>21463.9301</v>
       </c>
       <c r="G111" t="n">
-        <v>1.737933333333333</v>
+        <v>1.738083333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4455,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.757</v>
+        <v>1.721</v>
       </c>
       <c r="C112" t="n">
         <v>1.721</v>
       </c>
       <c r="D112" t="n">
-        <v>1.759</v>
+        <v>1.721</v>
       </c>
       <c r="E112" t="n">
         <v>1.721</v>
       </c>
       <c r="F112" t="n">
-        <v>3022374.88</v>
+        <v>5899.6183</v>
       </c>
       <c r="G112" t="n">
-        <v>1.737783333333333</v>
+        <v>1.737933333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4490,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.738</v>
+        <v>1.757</v>
       </c>
       <c r="C113" t="n">
-        <v>1.719</v>
+        <v>1.721</v>
       </c>
       <c r="D113" t="n">
-        <v>1.738</v>
+        <v>1.759</v>
       </c>
       <c r="E113" t="n">
-        <v>1.719</v>
+        <v>1.721</v>
       </c>
       <c r="F113" t="n">
-        <v>656839</v>
+        <v>3022374.88</v>
       </c>
       <c r="G113" t="n">
-        <v>1.737616666666666</v>
+        <v>1.737783333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4525,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="C114" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="D114" t="n">
-        <v>1.72</v>
+        <v>1.738</v>
       </c>
       <c r="E114" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="F114" t="n">
-        <v>164625.1609</v>
+        <v>656839</v>
       </c>
       <c r="G114" t="n">
-        <v>1.737416666666666</v>
+        <v>1.737616666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4560,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.717</v>
+        <v>1.72</v>
       </c>
       <c r="C115" t="n">
-        <v>1.717</v>
+        <v>1.718</v>
       </c>
       <c r="D115" t="n">
-        <v>1.717</v>
+        <v>1.72</v>
       </c>
       <c r="E115" t="n">
-        <v>1.717</v>
+        <v>1.718</v>
       </c>
       <c r="F115" t="n">
-        <v>6063.2908</v>
+        <v>164625.1609</v>
       </c>
       <c r="G115" t="n">
-        <v>1.737083333333333</v>
+        <v>1.737416666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4607,10 @@
         <v>1.717</v>
       </c>
       <c r="F116" t="n">
-        <v>25595.3169</v>
+        <v>6063.2908</v>
       </c>
       <c r="G116" t="n">
-        <v>1.736933333333333</v>
+        <v>1.737083333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4630,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.716</v>
+        <v>1.717</v>
       </c>
       <c r="C117" t="n">
-        <v>1.721</v>
+        <v>1.717</v>
       </c>
       <c r="D117" t="n">
-        <v>1.765</v>
+        <v>1.717</v>
       </c>
       <c r="E117" t="n">
-        <v>1.716</v>
+        <v>1.717</v>
       </c>
       <c r="F117" t="n">
-        <v>1341873.5995</v>
+        <v>25595.3169</v>
       </c>
       <c r="G117" t="n">
-        <v>1.73685</v>
+        <v>1.736933333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4665,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.749</v>
+        <v>1.716</v>
       </c>
       <c r="C118" t="n">
         <v>1.721</v>
       </c>
       <c r="D118" t="n">
-        <v>1.749</v>
+        <v>1.765</v>
       </c>
       <c r="E118" t="n">
-        <v>1.721</v>
+        <v>1.716</v>
       </c>
       <c r="F118" t="n">
-        <v>1155654.28</v>
+        <v>1341873.5995</v>
       </c>
       <c r="G118" t="n">
-        <v>1.736783333333333</v>
+        <v>1.73685</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4700,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.767</v>
+        <v>1.749</v>
       </c>
       <c r="C119" t="n">
         <v>1.721</v>
       </c>
       <c r="D119" t="n">
-        <v>1.767</v>
+        <v>1.749</v>
       </c>
       <c r="E119" t="n">
         <v>1.721</v>
       </c>
       <c r="F119" t="n">
-        <v>2274543.44</v>
+        <v>1155654.28</v>
       </c>
       <c r="G119" t="n">
-        <v>1.736716666666666</v>
+        <v>1.736783333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4735,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.761</v>
+        <v>1.767</v>
       </c>
       <c r="C120" t="n">
-        <v>1.722</v>
+        <v>1.721</v>
       </c>
       <c r="D120" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="E120" t="n">
-        <v>1.722</v>
+        <v>1.721</v>
       </c>
       <c r="F120" t="n">
-        <v>2186602.44</v>
+        <v>2274543.44</v>
       </c>
       <c r="G120" t="n">
-        <v>1.73665</v>
+        <v>1.736716666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,7 +4770,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.768</v>
+        <v>1.761</v>
       </c>
       <c r="C121" t="n">
         <v>1.722</v>
@@ -4610,10 +4782,10 @@
         <v>1.722</v>
       </c>
       <c r="F121" t="n">
-        <v>2094814.44</v>
+        <v>2186602.44</v>
       </c>
       <c r="G121" t="n">
-        <v>1.7364</v>
+        <v>1.73665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4805,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.758</v>
+        <v>1.768</v>
       </c>
       <c r="C122" t="n">
-        <v>1.755</v>
+        <v>1.722</v>
       </c>
       <c r="D122" t="n">
-        <v>1.758</v>
+        <v>1.768</v>
       </c>
       <c r="E122" t="n">
-        <v>1.723</v>
+        <v>1.722</v>
       </c>
       <c r="F122" t="n">
-        <v>3111862.1359</v>
+        <v>2094814.44</v>
       </c>
       <c r="G122" t="n">
-        <v>1.736816666666666</v>
+        <v>1.7364</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4840,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.731</v>
+        <v>1.758</v>
       </c>
       <c r="C123" t="n">
-        <v>1.731</v>
+        <v>1.755</v>
       </c>
       <c r="D123" t="n">
-        <v>1.731</v>
+        <v>1.758</v>
       </c>
       <c r="E123" t="n">
-        <v>1.731</v>
+        <v>1.723</v>
       </c>
       <c r="F123" t="n">
-        <v>547498</v>
+        <v>3111862.1359</v>
       </c>
       <c r="G123" t="n">
-        <v>1.736366666666666</v>
+        <v>1.736816666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4875,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.758</v>
+        <v>1.731</v>
       </c>
       <c r="C124" t="n">
-        <v>1.757</v>
+        <v>1.731</v>
       </c>
       <c r="D124" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="E124" t="n">
-        <v>1.732</v>
+        <v>1.731</v>
       </c>
       <c r="F124" t="n">
-        <v>2305223.44</v>
+        <v>547498</v>
       </c>
       <c r="G124" t="n">
-        <v>1.736233333333333</v>
+        <v>1.736366666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4910,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.733</v>
+        <v>1.758</v>
       </c>
       <c r="C125" t="n">
-        <v>1.733</v>
+        <v>1.757</v>
       </c>
       <c r="D125" t="n">
-        <v>1.757</v>
+        <v>1.759</v>
       </c>
       <c r="E125" t="n">
-        <v>1.733</v>
+        <v>1.732</v>
       </c>
       <c r="F125" t="n">
-        <v>1350012.44</v>
+        <v>2305223.44</v>
       </c>
       <c r="G125" t="n">
-        <v>1.736266666666666</v>
+        <v>1.736233333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4945,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.758</v>
+        <v>1.733</v>
       </c>
       <c r="C126" t="n">
-        <v>1.758</v>
+        <v>1.733</v>
       </c>
       <c r="D126" t="n">
-        <v>1.758</v>
+        <v>1.757</v>
       </c>
       <c r="E126" t="n">
-        <v>1.758</v>
+        <v>1.733</v>
       </c>
       <c r="F126" t="n">
-        <v>285</v>
+        <v>1350012.44</v>
       </c>
       <c r="G126" t="n">
-        <v>1.736716666666666</v>
+        <v>1.736266666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4980,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.757</v>
+        <v>1.758</v>
       </c>
       <c r="C127" t="n">
-        <v>1.733</v>
+        <v>1.758</v>
       </c>
       <c r="D127" t="n">
-        <v>1.757</v>
+        <v>1.758</v>
       </c>
       <c r="E127" t="n">
-        <v>1.733</v>
+        <v>1.758</v>
       </c>
       <c r="F127" t="n">
-        <v>825482</v>
+        <v>285</v>
       </c>
       <c r="G127" t="n">
-        <v>1.7366</v>
+        <v>1.736716666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4846,19 +5018,19 @@
         <v>1.757</v>
       </c>
       <c r="C128" t="n">
-        <v>1.731</v>
+        <v>1.733</v>
       </c>
       <c r="D128" t="n">
         <v>1.757</v>
       </c>
       <c r="E128" t="n">
-        <v>1.731</v>
+        <v>1.733</v>
       </c>
       <c r="F128" t="n">
-        <v>3043341.44</v>
+        <v>825482</v>
       </c>
       <c r="G128" t="n">
-        <v>1.73645</v>
+        <v>1.7366</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +5053,19 @@
         <v>1.757</v>
       </c>
       <c r="C129" t="n">
-        <v>1.757</v>
+        <v>1.731</v>
       </c>
       <c r="D129" t="n">
         <v>1.757</v>
       </c>
       <c r="E129" t="n">
-        <v>1.733</v>
+        <v>1.731</v>
       </c>
       <c r="F129" t="n">
-        <v>1624026.44</v>
+        <v>3043341.44</v>
       </c>
       <c r="G129" t="n">
-        <v>1.736883333333334</v>
+        <v>1.73645</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,10 +5085,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.755</v>
+        <v>1.757</v>
       </c>
       <c r="C130" t="n">
-        <v>1.733</v>
+        <v>1.757</v>
       </c>
       <c r="D130" t="n">
         <v>1.757</v>
@@ -4925,10 +5097,10 @@
         <v>1.733</v>
       </c>
       <c r="F130" t="n">
-        <v>2001806.44</v>
+        <v>1624026.44</v>
       </c>
       <c r="G130" t="n">
-        <v>1.736766666666667</v>
+        <v>1.736883333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5120,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="D131" t="n">
         <v>1.757</v>
       </c>
-      <c r="C131" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.759</v>
-      </c>
       <c r="E131" t="n">
-        <v>1.723</v>
+        <v>1.733</v>
       </c>
       <c r="F131" t="n">
-        <v>3017806.91</v>
+        <v>2001806.44</v>
       </c>
       <c r="G131" t="n">
-        <v>1.737233333333334</v>
+        <v>1.736766666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5155,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="C132" t="n">
         <v>1.759</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.741</v>
       </c>
       <c r="D132" t="n">
         <v>1.759</v>
       </c>
       <c r="E132" t="n">
-        <v>1.741</v>
+        <v>1.723</v>
       </c>
       <c r="F132" t="n">
-        <v>810798</v>
+        <v>3017806.91</v>
       </c>
       <c r="G132" t="n">
-        <v>1.7374</v>
+        <v>1.737233333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5190,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.749</v>
+        <v>1.759</v>
       </c>
       <c r="C133" t="n">
-        <v>1.749</v>
+        <v>1.741</v>
       </c>
       <c r="D133" t="n">
-        <v>1.749</v>
+        <v>1.759</v>
       </c>
       <c r="E133" t="n">
-        <v>1.722</v>
+        <v>1.741</v>
       </c>
       <c r="F133" t="n">
-        <v>3272657.44</v>
+        <v>810798</v>
       </c>
       <c r="G133" t="n">
-        <v>1.73755</v>
+        <v>1.7374</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5225,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.722</v>
+        <v>1.749</v>
       </c>
       <c r="C134" t="n">
-        <v>1.722</v>
+        <v>1.749</v>
       </c>
       <c r="D134" t="n">
-        <v>1.722</v>
+        <v>1.749</v>
       </c>
       <c r="E134" t="n">
         <v>1.722</v>
       </c>
       <c r="F134" t="n">
-        <v>548938</v>
+        <v>3272657.44</v>
       </c>
       <c r="G134" t="n">
-        <v>1.737266666666667</v>
+        <v>1.73755</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5260,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.749</v>
+        <v>1.722</v>
       </c>
       <c r="C135" t="n">
-        <v>1.739</v>
+        <v>1.722</v>
       </c>
       <c r="D135" t="n">
-        <v>1.749</v>
+        <v>1.722</v>
       </c>
       <c r="E135" t="n">
         <v>1.722</v>
       </c>
       <c r="F135" t="n">
-        <v>1757686.44</v>
+        <v>548938</v>
       </c>
       <c r="G135" t="n">
-        <v>1.73725</v>
+        <v>1.737266666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,10 +5295,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.722</v>
+        <v>1.749</v>
       </c>
       <c r="C136" t="n">
-        <v>1.731</v>
+        <v>1.739</v>
       </c>
       <c r="D136" t="n">
         <v>1.749</v>
@@ -5135,10 +5307,10 @@
         <v>1.722</v>
       </c>
       <c r="F136" t="n">
-        <v>2834345.44</v>
+        <v>1757686.44</v>
       </c>
       <c r="G136" t="n">
-        <v>1.737116666666667</v>
+        <v>1.73725</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5330,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.749</v>
+        <v>1.722</v>
       </c>
       <c r="C137" t="n">
-        <v>1.749</v>
+        <v>1.731</v>
       </c>
       <c r="D137" t="n">
         <v>1.749</v>
       </c>
       <c r="E137" t="n">
-        <v>1.749</v>
+        <v>1.722</v>
       </c>
       <c r="F137" t="n">
-        <v>286</v>
+        <v>2834345.44</v>
       </c>
       <c r="G137" t="n">
-        <v>1.737283333333334</v>
+        <v>1.737116666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,7 +5365,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.748</v>
+        <v>1.749</v>
       </c>
       <c r="C138" t="n">
         <v>1.749</v>
@@ -5202,13 +5374,13 @@
         <v>1.749</v>
       </c>
       <c r="E138" t="n">
-        <v>1.731</v>
+        <v>1.749</v>
       </c>
       <c r="F138" t="n">
-        <v>1052087.6403</v>
+        <v>286</v>
       </c>
       <c r="G138" t="n">
-        <v>1.73745</v>
+        <v>1.737283333333334</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5400,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.731</v>
+        <v>1.748</v>
       </c>
       <c r="C139" t="n">
-        <v>1.731</v>
+        <v>1.749</v>
       </c>
       <c r="D139" t="n">
-        <v>1.759</v>
+        <v>1.749</v>
       </c>
       <c r="E139" t="n">
         <v>1.731</v>
       </c>
       <c r="F139" t="n">
-        <v>2662024.44</v>
+        <v>1052087.6403</v>
       </c>
       <c r="G139" t="n">
-        <v>1.737566666666666</v>
+        <v>1.73745</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5435,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="C140" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="D140" t="n">
         <v>1.759</v>
       </c>
       <c r="E140" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="F140" t="n">
-        <v>254492</v>
+        <v>2662024.44</v>
       </c>
       <c r="G140" t="n">
-        <v>1.737916666666667</v>
+        <v>1.737566666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5470,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.731</v>
+        <v>1.759</v>
       </c>
       <c r="C141" t="n">
-        <v>1.77</v>
+        <v>1.759</v>
       </c>
       <c r="D141" t="n">
-        <v>1.77</v>
+        <v>1.759</v>
       </c>
       <c r="E141" t="n">
-        <v>1.731</v>
+        <v>1.759</v>
       </c>
       <c r="F141" t="n">
-        <v>3581861.633260791</v>
+        <v>254492</v>
       </c>
       <c r="G141" t="n">
-        <v>1.738433333333333</v>
+        <v>1.737916666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5505,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C142" t="n">
         <v>1.77</v>
       </c>
-      <c r="C142" t="n">
-        <v>1.733</v>
-      </c>
       <c r="D142" t="n">
-        <v>1.777</v>
+        <v>1.77</v>
       </c>
       <c r="E142" t="n">
-        <v>1.732</v>
+        <v>1.731</v>
       </c>
       <c r="F142" t="n">
-        <v>2256156.652</v>
+        <v>3581861.633260791</v>
       </c>
       <c r="G142" t="n">
-        <v>1.7386</v>
+        <v>1.738433333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,10 +5540,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.771</v>
+        <v>1.77</v>
       </c>
       <c r="C143" t="n">
-        <v>1.777</v>
+        <v>1.733</v>
       </c>
       <c r="D143" t="n">
         <v>1.777</v>
@@ -5380,10 +5552,10 @@
         <v>1.732</v>
       </c>
       <c r="F143" t="n">
-        <v>2202144</v>
+        <v>2256156.652</v>
       </c>
       <c r="G143" t="n">
-        <v>1.739233333333333</v>
+        <v>1.7386</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5575,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C144" t="n">
         <v>1.777</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.731</v>
       </c>
       <c r="D144" t="n">
         <v>1.777</v>
       </c>
       <c r="E144" t="n">
-        <v>1.731</v>
+        <v>1.732</v>
       </c>
       <c r="F144" t="n">
-        <v>1197517</v>
+        <v>2202144</v>
       </c>
       <c r="G144" t="n">
-        <v>1.73845</v>
+        <v>1.739233333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5610,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.758</v>
+        <v>1.777</v>
       </c>
       <c r="C145" t="n">
         <v>1.731</v>
       </c>
       <c r="D145" t="n">
-        <v>1.758</v>
+        <v>1.777</v>
       </c>
       <c r="E145" t="n">
         <v>1.731</v>
       </c>
       <c r="F145" t="n">
-        <v>2220201</v>
+        <v>1197517</v>
       </c>
       <c r="G145" t="n">
-        <v>1.738283333333333</v>
+        <v>1.73845</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5476,19 +5648,19 @@
         <v>1.758</v>
       </c>
       <c r="C146" t="n">
-        <v>1.733</v>
+        <v>1.731</v>
       </c>
       <c r="D146" t="n">
         <v>1.758</v>
       </c>
       <c r="E146" t="n">
-        <v>1.733</v>
+        <v>1.731</v>
       </c>
       <c r="F146" t="n">
-        <v>2266360</v>
+        <v>2220201</v>
       </c>
       <c r="G146" t="n">
-        <v>1.7383</v>
+        <v>1.738283333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5511,19 +5683,19 @@
         <v>1.758</v>
       </c>
       <c r="C147" t="n">
-        <v>1.758</v>
+        <v>1.733</v>
       </c>
       <c r="D147" t="n">
         <v>1.758</v>
       </c>
       <c r="E147" t="n">
-        <v>1.731</v>
+        <v>1.733</v>
       </c>
       <c r="F147" t="n">
-        <v>1835627</v>
+        <v>2266360</v>
       </c>
       <c r="G147" t="n">
-        <v>1.738599999999999</v>
+        <v>1.7383</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,10 +5715,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.731</v>
+        <v>1.758</v>
       </c>
       <c r="C148" t="n">
-        <v>1.731</v>
+        <v>1.758</v>
       </c>
       <c r="D148" t="n">
         <v>1.758</v>
@@ -5555,10 +5727,10 @@
         <v>1.731</v>
       </c>
       <c r="F148" t="n">
-        <v>1941066</v>
+        <v>1835627</v>
       </c>
       <c r="G148" t="n">
-        <v>1.73855</v>
+        <v>1.738599999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5750,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.756</v>
+        <v>1.731</v>
       </c>
       <c r="C149" t="n">
-        <v>1.756</v>
+        <v>1.731</v>
       </c>
       <c r="D149" t="n">
-        <v>1.756</v>
+        <v>1.758</v>
       </c>
       <c r="E149" t="n">
         <v>1.731</v>
       </c>
       <c r="F149" t="n">
-        <v>1722506</v>
+        <v>1941066</v>
       </c>
       <c r="G149" t="n">
-        <v>1.738816666666666</v>
+        <v>1.73855</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5785,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.731</v>
+        <v>1.756</v>
       </c>
       <c r="C150" t="n">
-        <v>1.723</v>
+        <v>1.756</v>
       </c>
       <c r="D150" t="n">
         <v>1.756</v>
       </c>
       <c r="E150" t="n">
-        <v>1.723</v>
+        <v>1.731</v>
       </c>
       <c r="F150" t="n">
-        <v>2806842</v>
+        <v>1722506</v>
       </c>
       <c r="G150" t="n">
-        <v>1.738533333333333</v>
+        <v>1.738816666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5820,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.757</v>
+        <v>1.731</v>
       </c>
       <c r="C151" t="n">
-        <v>1.757</v>
+        <v>1.723</v>
       </c>
       <c r="D151" t="n">
-        <v>1.757</v>
+        <v>1.756</v>
       </c>
       <c r="E151" t="n">
-        <v>1.757</v>
+        <v>1.723</v>
       </c>
       <c r="F151" t="n">
-        <v>838.3142</v>
+        <v>2806842</v>
       </c>
       <c r="G151" t="n">
-        <v>1.738816666666666</v>
+        <v>1.738533333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5855,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.74</v>
+        <v>1.757</v>
       </c>
       <c r="C152" t="n">
-        <v>1.759</v>
+        <v>1.757</v>
       </c>
       <c r="D152" t="n">
-        <v>1.759</v>
+        <v>1.757</v>
       </c>
       <c r="E152" t="n">
-        <v>1.731</v>
+        <v>1.757</v>
       </c>
       <c r="F152" t="n">
-        <v>1755438</v>
+        <v>838.3142</v>
       </c>
       <c r="G152" t="n">
-        <v>1.739133333333333</v>
+        <v>1.738816666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,10 +5890,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.731</v>
+        <v>1.74</v>
       </c>
       <c r="C153" t="n">
-        <v>1.731</v>
+        <v>1.759</v>
       </c>
       <c r="D153" t="n">
         <v>1.759</v>
@@ -5730,10 +5902,10 @@
         <v>1.731</v>
       </c>
       <c r="F153" t="n">
-        <v>1820347.56</v>
+        <v>1755438</v>
       </c>
       <c r="G153" t="n">
-        <v>1.738983333333333</v>
+        <v>1.739133333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5925,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="C154" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="D154" t="n">
         <v>1.759</v>
       </c>
       <c r="E154" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="F154" t="n">
-        <v>5000</v>
+        <v>1820347.56</v>
       </c>
       <c r="G154" t="n">
-        <v>1.7393</v>
+        <v>1.738983333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5960,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="C155" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="D155" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="E155" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="F155" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G155" t="n">
-        <v>1.739333333333334</v>
+        <v>1.7393</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5995,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="C156" t="n">
-        <v>1.741</v>
+        <v>1.76</v>
       </c>
       <c r="D156" t="n">
-        <v>1.759</v>
+        <v>1.76</v>
       </c>
       <c r="E156" t="n">
-        <v>1.727</v>
+        <v>1.76</v>
       </c>
       <c r="F156" t="n">
-        <v>2713214.56</v>
+        <v>1000</v>
       </c>
       <c r="G156" t="n">
-        <v>1.739633333333334</v>
+        <v>1.739333333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5861,19 +6033,19 @@
         <v>1.759</v>
       </c>
       <c r="C157" t="n">
-        <v>1.726</v>
+        <v>1.741</v>
       </c>
       <c r="D157" t="n">
         <v>1.759</v>
       </c>
       <c r="E157" t="n">
-        <v>1.726</v>
+        <v>1.727</v>
       </c>
       <c r="F157" t="n">
-        <v>830015</v>
+        <v>2713214.56</v>
       </c>
       <c r="G157" t="n">
-        <v>1.739683333333333</v>
+        <v>1.739633333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5896,19 +6068,19 @@
         <v>1.759</v>
       </c>
       <c r="C158" t="n">
-        <v>1.759</v>
+        <v>1.726</v>
       </c>
       <c r="D158" t="n">
         <v>1.759</v>
       </c>
       <c r="E158" t="n">
-        <v>1.731</v>
+        <v>1.726</v>
       </c>
       <c r="F158" t="n">
-        <v>1406756.56</v>
+        <v>830015</v>
       </c>
       <c r="G158" t="n">
-        <v>1.739583333333333</v>
+        <v>1.739683333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5931,7 +6103,7 @@
         <v>1.759</v>
       </c>
       <c r="C159" t="n">
-        <v>1.731</v>
+        <v>1.759</v>
       </c>
       <c r="D159" t="n">
         <v>1.759</v>
@@ -5940,10 +6112,10 @@
         <v>1.731</v>
       </c>
       <c r="F159" t="n">
-        <v>2345963</v>
+        <v>1406756.56</v>
       </c>
       <c r="G159" t="n">
-        <v>1.7388</v>
+        <v>1.739583333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +6135,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.73</v>
+        <v>1.759</v>
       </c>
       <c r="C160" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="D160" t="n">
         <v>1.759</v>
       </c>
       <c r="E160" t="n">
-        <v>1.73</v>
+        <v>1.731</v>
       </c>
       <c r="F160" t="n">
-        <v>1532348.8708</v>
+        <v>2345963</v>
       </c>
       <c r="G160" t="n">
-        <v>1.739383333333333</v>
+        <v>1.7388</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6170,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="C161" t="n">
-        <v>1.741</v>
+        <v>1.759</v>
       </c>
       <c r="D161" t="n">
         <v>1.759</v>
       </c>
       <c r="E161" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="F161" t="n">
-        <v>2704249.56</v>
+        <v>1532348.8708</v>
       </c>
       <c r="G161" t="n">
-        <v>1.738916666666667</v>
+        <v>1.739383333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,7 +6205,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.759</v>
+        <v>1.731</v>
       </c>
       <c r="C162" t="n">
         <v>1.741</v>
@@ -6042,13 +6214,13 @@
         <v>1.759</v>
       </c>
       <c r="E162" t="n">
-        <v>1.741</v>
+        <v>1.731</v>
       </c>
       <c r="F162" t="n">
-        <v>1373256</v>
+        <v>2704249.56</v>
       </c>
       <c r="G162" t="n">
-        <v>1.738466666666667</v>
+        <v>1.738916666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6252,10 @@
         <v>1.741</v>
       </c>
       <c r="F163" t="n">
-        <v>2052094</v>
+        <v>1373256</v>
       </c>
       <c r="G163" t="n">
-        <v>1.738066666666666</v>
+        <v>1.738466666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6115,10 +6287,10 @@
         <v>1.741</v>
       </c>
       <c r="F164" t="n">
-        <v>1578254</v>
+        <v>2052094</v>
       </c>
       <c r="G164" t="n">
-        <v>1.738383333333333</v>
+        <v>1.738066666666666</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6147,13 +6319,13 @@
         <v>1.759</v>
       </c>
       <c r="E165" t="n">
-        <v>1.73</v>
+        <v>1.741</v>
       </c>
       <c r="F165" t="n">
-        <v>3004893</v>
+        <v>1578254</v>
       </c>
       <c r="G165" t="n">
-        <v>1.738666666666667</v>
+        <v>1.738383333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6182,13 +6354,13 @@
         <v>1.759</v>
       </c>
       <c r="E166" t="n">
-        <v>1.741</v>
+        <v>1.73</v>
       </c>
       <c r="F166" t="n">
-        <v>3653436</v>
+        <v>3004893</v>
       </c>
       <c r="G166" t="n">
-        <v>1.738566666666667</v>
+        <v>1.738666666666667</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6211,19 +6383,19 @@
         <v>1.759</v>
       </c>
       <c r="C167" t="n">
-        <v>1.775</v>
+        <v>1.741</v>
       </c>
       <c r="D167" t="n">
-        <v>1.775</v>
+        <v>1.759</v>
       </c>
       <c r="E167" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="F167" t="n">
-        <v>113322.0116980282</v>
+        <v>3653436</v>
       </c>
       <c r="G167" t="n">
-        <v>1.7393</v>
+        <v>1.738566666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6415,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.765</v>
+        <v>1.759</v>
       </c>
       <c r="C168" t="n">
-        <v>1.774</v>
+        <v>1.775</v>
       </c>
       <c r="D168" t="n">
-        <v>1.774</v>
+        <v>1.775</v>
       </c>
       <c r="E168" t="n">
-        <v>1.741</v>
+        <v>1.759</v>
       </c>
       <c r="F168" t="n">
-        <v>1623113</v>
+        <v>113322.0116980282</v>
       </c>
       <c r="G168" t="n">
-        <v>1.740016666666667</v>
+        <v>1.7393</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6450,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.743</v>
+        <v>1.765</v>
       </c>
       <c r="C169" t="n">
-        <v>1.752</v>
+        <v>1.774</v>
       </c>
       <c r="D169" t="n">
         <v>1.774</v>
       </c>
       <c r="E169" t="n">
-        <v>1.743</v>
+        <v>1.741</v>
       </c>
       <c r="F169" t="n">
-        <v>1946496</v>
+        <v>1623113</v>
       </c>
       <c r="G169" t="n">
-        <v>1.740516666666667</v>
+        <v>1.740016666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,22 +6485,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.771</v>
+        <v>1.743</v>
       </c>
       <c r="C170" t="n">
-        <v>1.751</v>
+        <v>1.752</v>
       </c>
       <c r="D170" t="n">
         <v>1.774</v>
       </c>
       <c r="E170" t="n">
-        <v>1.742</v>
+        <v>1.743</v>
       </c>
       <c r="F170" t="n">
-        <v>2163268</v>
+        <v>1946496</v>
       </c>
       <c r="G170" t="n">
-        <v>1.741</v>
+        <v>1.740516666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6520,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.758</v>
+        <v>1.771</v>
       </c>
       <c r="C171" t="n">
-        <v>1.742</v>
+        <v>1.751</v>
       </c>
       <c r="D171" t="n">
-        <v>1.758</v>
+        <v>1.774</v>
       </c>
       <c r="E171" t="n">
         <v>1.742</v>
       </c>
       <c r="F171" t="n">
-        <v>1547424</v>
+        <v>2163268</v>
       </c>
       <c r="G171" t="n">
-        <v>1.74135</v>
+        <v>1.741</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6389,16 +6561,16 @@
         <v>1.742</v>
       </c>
       <c r="D172" t="n">
-        <v>1.759</v>
+        <v>1.758</v>
       </c>
       <c r="E172" t="n">
         <v>1.742</v>
       </c>
       <c r="F172" t="n">
-        <v>2315982.889141558</v>
+        <v>1547424</v>
       </c>
       <c r="G172" t="n">
-        <v>1.7417</v>
+        <v>1.74135</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6424,26 +6596,32 @@
         <v>1.742</v>
       </c>
       <c r="D173" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="E173" t="n">
         <v>1.742</v>
       </c>
       <c r="F173" t="n">
-        <v>1514060</v>
+        <v>2315982.889141558</v>
       </c>
       <c r="G173" t="n">
-        <v>1.742083333333334</v>
+        <v>1.7417</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.742</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6456,29 +6634,35 @@
         <v>1.758</v>
       </c>
       <c r="C174" t="n">
-        <v>1.758</v>
+        <v>1.742</v>
       </c>
       <c r="D174" t="n">
         <v>1.758</v>
       </c>
       <c r="E174" t="n">
-        <v>1.741</v>
+        <v>1.742</v>
       </c>
       <c r="F174" t="n">
-        <v>1321725</v>
+        <v>1514060</v>
       </c>
       <c r="G174" t="n">
-        <v>1.74275</v>
+        <v>1.742083333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.742</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6491,7 +6675,7 @@
         <v>1.758</v>
       </c>
       <c r="C175" t="n">
-        <v>1.741</v>
+        <v>1.758</v>
       </c>
       <c r="D175" t="n">
         <v>1.758</v>
@@ -6500,10 +6684,10 @@
         <v>1.741</v>
       </c>
       <c r="F175" t="n">
-        <v>2574826</v>
+        <v>1321725</v>
       </c>
       <c r="G175" t="n">
-        <v>1.74315</v>
+        <v>1.74275</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6513,7 +6697,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6523,22 +6711,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.756</v>
+        <v>1.758</v>
       </c>
       <c r="C176" t="n">
         <v>1.741</v>
       </c>
       <c r="D176" t="n">
-        <v>1.756</v>
+        <v>1.758</v>
       </c>
       <c r="E176" t="n">
         <v>1.741</v>
       </c>
       <c r="F176" t="n">
-        <v>2376488</v>
+        <v>2574826</v>
       </c>
       <c r="G176" t="n">
-        <v>1.74355</v>
+        <v>1.74315</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6548,7 +6736,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6561,19 +6753,19 @@
         <v>1.756</v>
       </c>
       <c r="C177" t="n">
-        <v>1.74</v>
+        <v>1.741</v>
       </c>
       <c r="D177" t="n">
         <v>1.756</v>
       </c>
       <c r="E177" t="n">
-        <v>1.732</v>
+        <v>1.741</v>
       </c>
       <c r="F177" t="n">
-        <v>2167403</v>
+        <v>2376488</v>
       </c>
       <c r="G177" t="n">
-        <v>1.743866666666667</v>
+        <v>1.74355</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6583,7 +6775,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6596,19 +6792,19 @@
         <v>1.756</v>
       </c>
       <c r="C178" t="n">
-        <v>1.756</v>
+        <v>1.74</v>
       </c>
       <c r="D178" t="n">
         <v>1.756</v>
       </c>
       <c r="E178" t="n">
-        <v>1.756</v>
+        <v>1.732</v>
       </c>
       <c r="F178" t="n">
-        <v>1000</v>
+        <v>2167403</v>
       </c>
       <c r="G178" t="n">
-        <v>1.74445</v>
+        <v>1.743866666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6618,7 +6814,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6631,19 +6831,19 @@
         <v>1.756</v>
       </c>
       <c r="C179" t="n">
-        <v>1.741</v>
+        <v>1.756</v>
       </c>
       <c r="D179" t="n">
         <v>1.756</v>
       </c>
       <c r="E179" t="n">
-        <v>1.741</v>
+        <v>1.756</v>
       </c>
       <c r="F179" t="n">
-        <v>459496</v>
+        <v>1000</v>
       </c>
       <c r="G179" t="n">
-        <v>1.744783333333334</v>
+        <v>1.74445</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6653,7 +6853,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6663,22 +6867,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.741</v>
+        <v>1.756</v>
       </c>
       <c r="C180" t="n">
         <v>1.741</v>
       </c>
       <c r="D180" t="n">
-        <v>1.758</v>
+        <v>1.756</v>
       </c>
       <c r="E180" t="n">
         <v>1.741</v>
       </c>
       <c r="F180" t="n">
-        <v>2856703</v>
+        <v>459496</v>
       </c>
       <c r="G180" t="n">
-        <v>1.7451</v>
+        <v>1.744783333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6688,7 +6892,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6698,22 +6906,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="C181" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="D181" t="n">
-        <v>1.759</v>
+        <v>1.758</v>
       </c>
       <c r="E181" t="n">
-        <v>1.759</v>
+        <v>1.741</v>
       </c>
       <c r="F181" t="n">
-        <v>1652.8981</v>
+        <v>2856703</v>
       </c>
       <c r="G181" t="n">
-        <v>1.745716666666667</v>
+        <v>1.7451</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6723,7 +6931,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6733,22 +6945,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="C182" t="n">
-        <v>1.735</v>
+        <v>1.759</v>
       </c>
       <c r="D182" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="E182" t="n">
-        <v>1.735</v>
+        <v>1.759</v>
       </c>
       <c r="F182" t="n">
-        <v>3387884.2959</v>
+        <v>1652.8981</v>
       </c>
       <c r="G182" t="n">
-        <v>1.745383333333334</v>
+        <v>1.745716666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6758,7 +6970,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6771,19 +6987,19 @@
         <v>1.758</v>
       </c>
       <c r="C183" t="n">
-        <v>1.758</v>
+        <v>1.735</v>
       </c>
       <c r="D183" t="n">
         <v>1.758</v>
       </c>
       <c r="E183" t="n">
-        <v>1.758</v>
+        <v>1.735</v>
       </c>
       <c r="F183" t="n">
-        <v>1279.7468</v>
+        <v>3387884.2959</v>
       </c>
       <c r="G183" t="n">
-        <v>1.745833333333334</v>
+        <v>1.745383333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6793,7 +7009,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6803,22 +7023,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1.74</v>
+        <v>1.758</v>
       </c>
       <c r="C184" t="n">
-        <v>1.733</v>
+        <v>1.758</v>
       </c>
       <c r="D184" t="n">
-        <v>1.74</v>
+        <v>1.758</v>
       </c>
       <c r="E184" t="n">
-        <v>1.733</v>
+        <v>1.758</v>
       </c>
       <c r="F184" t="n">
-        <v>850291.2662</v>
+        <v>1279.7468</v>
       </c>
       <c r="G184" t="n">
-        <v>1.745433333333334</v>
+        <v>1.745833333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6828,7 +7048,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6838,22 +7062,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1.758</v>
+        <v>1.74</v>
       </c>
       <c r="C185" t="n">
-        <v>1.735</v>
+        <v>1.733</v>
       </c>
       <c r="D185" t="n">
-        <v>1.758</v>
+        <v>1.74</v>
       </c>
       <c r="E185" t="n">
-        <v>1.735</v>
+        <v>1.733</v>
       </c>
       <c r="F185" t="n">
-        <v>647460</v>
+        <v>850291.2662</v>
       </c>
       <c r="G185" t="n">
-        <v>1.745466666666667</v>
+        <v>1.745433333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6863,7 +7087,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6876,19 +7104,19 @@
         <v>1.758</v>
       </c>
       <c r="C186" t="n">
-        <v>1.756</v>
+        <v>1.735</v>
       </c>
       <c r="D186" t="n">
         <v>1.758</v>
       </c>
       <c r="E186" t="n">
-        <v>1.734</v>
+        <v>1.735</v>
       </c>
       <c r="F186" t="n">
-        <v>3064139</v>
+        <v>647460</v>
       </c>
       <c r="G186" t="n">
-        <v>1.745433333333334</v>
+        <v>1.745466666666667</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6898,7 +7126,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6908,22 +7140,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1.734</v>
+        <v>1.758</v>
       </c>
       <c r="C187" t="n">
-        <v>1.734</v>
+        <v>1.756</v>
       </c>
       <c r="D187" t="n">
-        <v>1.734</v>
+        <v>1.758</v>
       </c>
       <c r="E187" t="n">
         <v>1.734</v>
       </c>
       <c r="F187" t="n">
-        <v>538688</v>
+        <v>3064139</v>
       </c>
       <c r="G187" t="n">
-        <v>1.74545</v>
+        <v>1.745433333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6933,7 +7165,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6943,22 +7179,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1.732</v>
+        <v>1.734</v>
       </c>
       <c r="C188" t="n">
-        <v>1.725</v>
+        <v>1.734</v>
       </c>
       <c r="D188" t="n">
-        <v>1.732</v>
+        <v>1.734</v>
       </c>
       <c r="E188" t="n">
-        <v>1.725</v>
+        <v>1.734</v>
       </c>
       <c r="F188" t="n">
-        <v>31403.8904</v>
+        <v>538688</v>
       </c>
       <c r="G188" t="n">
-        <v>1.74535</v>
+        <v>1.74545</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6968,7 +7204,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6978,10 +7218,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="C189" t="n">
         <v>1.725</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.732</v>
       </c>
       <c r="D189" t="n">
         <v>1.732</v>
@@ -6990,10 +7230,10 @@
         <v>1.725</v>
       </c>
       <c r="F189" t="n">
-        <v>359445.1142</v>
+        <v>31403.8904</v>
       </c>
       <c r="G189" t="n">
-        <v>1.744933333333333</v>
+        <v>1.74535</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7003,7 +7243,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7013,32 +7257,38 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.724</v>
+        <v>1.725</v>
       </c>
       <c r="C190" t="n">
-        <v>1.71</v>
+        <v>1.732</v>
       </c>
       <c r="D190" t="n">
-        <v>1.724</v>
+        <v>1.732</v>
       </c>
       <c r="E190" t="n">
-        <v>1.71</v>
+        <v>1.725</v>
       </c>
       <c r="F190" t="n">
-        <v>554850.2068</v>
+        <v>359445.1142</v>
       </c>
       <c r="G190" t="n">
-        <v>1.74455</v>
+        <v>1.744933333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.725</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7048,22 +7298,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.755</v>
+        <v>1.724</v>
       </c>
       <c r="C191" t="n">
-        <v>1.755</v>
+        <v>1.71</v>
       </c>
       <c r="D191" t="n">
-        <v>1.755</v>
+        <v>1.724</v>
       </c>
       <c r="E191" t="n">
-        <v>1.721</v>
+        <v>1.71</v>
       </c>
       <c r="F191" t="n">
-        <v>653930</v>
+        <v>554850.2068</v>
       </c>
       <c r="G191" t="n">
-        <v>1.744483333333333</v>
+        <v>1.74455</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7073,7 +7323,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7086,7 +7340,7 @@
         <v>1.755</v>
       </c>
       <c r="C192" t="n">
-        <v>1.722</v>
+        <v>1.755</v>
       </c>
       <c r="D192" t="n">
         <v>1.755</v>
@@ -7095,20 +7349,26 @@
         <v>1.721</v>
       </c>
       <c r="F192" t="n">
-        <v>2775713</v>
+        <v>653930</v>
       </c>
       <c r="G192" t="n">
-        <v>1.744166666666666</v>
+        <v>1.744483333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.71</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7118,22 +7378,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.723</v>
+        <v>1.755</v>
       </c>
       <c r="C193" t="n">
-        <v>1.72</v>
+        <v>1.722</v>
       </c>
       <c r="D193" t="n">
-        <v>1.723</v>
+        <v>1.755</v>
       </c>
       <c r="E193" t="n">
-        <v>1.72</v>
+        <v>1.721</v>
       </c>
       <c r="F193" t="n">
-        <v>24333.2451</v>
+        <v>2775713</v>
       </c>
       <c r="G193" t="n">
-        <v>1.743683333333333</v>
+        <v>1.744166666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7143,7 +7403,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7153,22 +7417,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.714</v>
+        <v>1.723</v>
       </c>
       <c r="C194" t="n">
         <v>1.72</v>
       </c>
       <c r="D194" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="E194" t="n">
         <v>1.72</v>
       </c>
-      <c r="E194" t="n">
-        <v>1.701</v>
-      </c>
       <c r="F194" t="n">
-        <v>412668.125227907</v>
+        <v>24333.2451</v>
       </c>
       <c r="G194" t="n">
-        <v>1.74365</v>
+        <v>1.743683333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7178,7 +7442,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7188,22 +7456,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.719</v>
+        <v>1.714</v>
       </c>
       <c r="C195" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="D195" t="n">
-        <v>1.719</v>
+        <v>1.72</v>
       </c>
       <c r="E195" t="n">
-        <v>1.719</v>
+        <v>1.701</v>
       </c>
       <c r="F195" t="n">
-        <v>2487.2652</v>
+        <v>412668.125227907</v>
       </c>
       <c r="G195" t="n">
-        <v>1.743316666666666</v>
+        <v>1.74365</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7213,7 +7481,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7223,22 +7495,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="C196" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="D196" t="n">
-        <v>1.718</v>
+        <v>1.719</v>
       </c>
       <c r="E196" t="n">
-        <v>1.702</v>
+        <v>1.719</v>
       </c>
       <c r="F196" t="n">
-        <v>2430472</v>
+        <v>2487.2652</v>
       </c>
       <c r="G196" t="n">
-        <v>1.7431</v>
+        <v>1.743316666666666</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7248,7 +7520,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7258,22 +7534,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.702</v>
+        <v>1.718</v>
       </c>
       <c r="C197" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="D197" t="n">
-        <v>1.719</v>
+        <v>1.718</v>
       </c>
       <c r="E197" t="n">
         <v>1.702</v>
       </c>
       <c r="F197" t="n">
-        <v>1303621.0951</v>
+        <v>2430472</v>
       </c>
       <c r="G197" t="n">
-        <v>1.7426</v>
+        <v>1.7431</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7283,7 +7559,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7293,7 +7573,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.719</v>
+        <v>1.702</v>
       </c>
       <c r="C198" t="n">
         <v>1.719</v>
@@ -7302,13 +7582,13 @@
         <v>1.719</v>
       </c>
       <c r="E198" t="n">
-        <v>1.719</v>
+        <v>1.702</v>
       </c>
       <c r="F198" t="n">
-        <v>800</v>
+        <v>1303621.0951</v>
       </c>
       <c r="G198" t="n">
-        <v>1.7421</v>
+        <v>1.7426</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7318,7 +7598,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7340,24 +7624,24 @@
         <v>1.719</v>
       </c>
       <c r="F199" t="n">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="G199" t="n">
-        <v>1.7419</v>
+        <v>1.7421</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="K199" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="L199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7367,38 +7651,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1.707</v>
+        <v>1.719</v>
       </c>
       <c r="C200" t="n">
-        <v>1.707</v>
+        <v>1.719</v>
       </c>
       <c r="D200" t="n">
-        <v>1.707</v>
+        <v>1.719</v>
       </c>
       <c r="E200" t="n">
-        <v>1.707</v>
+        <v>1.719</v>
       </c>
       <c r="F200" t="n">
-        <v>11378.1729</v>
+        <v>4000</v>
       </c>
       <c r="G200" t="n">
-        <v>1.741033333333333</v>
+        <v>1.7419</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>1.719</v>
-      </c>
-      <c r="K200" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M200" t="n">
@@ -7410,22 +7690,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="C201" t="n">
-        <v>1.72</v>
+        <v>1.707</v>
       </c>
       <c r="D201" t="n">
-        <v>1.72</v>
+        <v>1.707</v>
       </c>
       <c r="E201" t="n">
-        <v>1.719</v>
+        <v>1.707</v>
       </c>
       <c r="F201" t="n">
-        <v>35831.39534883721</v>
+        <v>11378.1729</v>
       </c>
       <c r="G201" t="n">
-        <v>1.7402</v>
+        <v>1.741033333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7434,12 +7714,10 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M201" t="n">
@@ -7451,22 +7729,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.74</v>
+        <v>1.719</v>
       </c>
       <c r="C202" t="n">
-        <v>1.708</v>
+        <v>1.72</v>
       </c>
       <c r="D202" t="n">
-        <v>1.758</v>
+        <v>1.72</v>
       </c>
       <c r="E202" t="n">
-        <v>1.708</v>
+        <v>1.719</v>
       </c>
       <c r="F202" t="n">
-        <v>2994603</v>
+        <v>35831.39534883721</v>
       </c>
       <c r="G202" t="n">
-        <v>1.739783333333333</v>
+        <v>1.7402</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7475,9 +7753,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7492,22 +7768,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.757</v>
+        <v>1.74</v>
       </c>
       <c r="C203" t="n">
         <v>1.708</v>
       </c>
       <c r="D203" t="n">
-        <v>1.759</v>
+        <v>1.758</v>
       </c>
       <c r="E203" t="n">
         <v>1.708</v>
       </c>
       <c r="F203" t="n">
-        <v>775015.0252</v>
+        <v>2994603</v>
       </c>
       <c r="G203" t="n">
-        <v>1.738633333333333</v>
+        <v>1.739783333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7516,9 +7792,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7533,22 +7807,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.711</v>
+        <v>1.757</v>
       </c>
       <c r="C204" t="n">
         <v>1.708</v>
       </c>
       <c r="D204" t="n">
-        <v>1.711</v>
+        <v>1.759</v>
       </c>
       <c r="E204" t="n">
         <v>1.708</v>
       </c>
       <c r="F204" t="n">
-        <v>161383.9803</v>
+        <v>775015.0252</v>
       </c>
       <c r="G204" t="n">
-        <v>1.73825</v>
+        <v>1.738633333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7557,9 +7831,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,22 +7846,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.715</v>
+        <v>1.711</v>
       </c>
       <c r="C205" t="n">
         <v>1.708</v>
       </c>
       <c r="D205" t="n">
-        <v>1.715</v>
+        <v>1.711</v>
       </c>
       <c r="E205" t="n">
         <v>1.708</v>
       </c>
       <c r="F205" t="n">
-        <v>500000</v>
+        <v>161383.9803</v>
       </c>
       <c r="G205" t="n">
-        <v>1.737866666666666</v>
+        <v>1.73825</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7598,9 +7870,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,22 +7885,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.756</v>
+        <v>1.715</v>
       </c>
       <c r="C206" t="n">
-        <v>1.757</v>
+        <v>1.708</v>
       </c>
       <c r="D206" t="n">
-        <v>1.757</v>
+        <v>1.715</v>
       </c>
       <c r="E206" t="n">
-        <v>1.756</v>
+        <v>1.708</v>
       </c>
       <c r="F206" t="n">
-        <v>260323</v>
+        <v>500000</v>
       </c>
       <c r="G206" t="n">
-        <v>1.738266666666667</v>
+        <v>1.737866666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7639,9 +7909,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,22 +7924,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.71</v>
+        <v>1.756</v>
       </c>
       <c r="C207" t="n">
-        <v>1.713</v>
+        <v>1.757</v>
       </c>
       <c r="D207" t="n">
         <v>1.757</v>
       </c>
       <c r="E207" t="n">
-        <v>1.71</v>
+        <v>1.756</v>
       </c>
       <c r="F207" t="n">
-        <v>2956380.37</v>
+        <v>260323</v>
       </c>
       <c r="G207" t="n">
-        <v>1.737516666666667</v>
+        <v>1.738266666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7680,9 +7948,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,22 +7963,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.756</v>
+        <v>1.71</v>
       </c>
       <c r="C208" t="n">
-        <v>1.756</v>
+        <v>1.713</v>
       </c>
       <c r="D208" t="n">
-        <v>1.756</v>
+        <v>1.757</v>
       </c>
       <c r="E208" t="n">
-        <v>1.756</v>
+        <v>1.71</v>
       </c>
       <c r="F208" t="n">
-        <v>5000</v>
+        <v>2956380.37</v>
       </c>
       <c r="G208" t="n">
-        <v>1.737933333333333</v>
+        <v>1.737516666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7721,9 +7987,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,7 +8014,7 @@
         <v>1.756</v>
       </c>
       <c r="F209" t="n">
-        <v>19282.9145</v>
+        <v>5000</v>
       </c>
       <c r="G209" t="n">
         <v>1.737933333333333</v>
@@ -7762,9 +8026,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7779,22 +8041,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.757</v>
+        <v>1.756</v>
       </c>
       <c r="C210" t="n">
-        <v>1.757</v>
+        <v>1.756</v>
       </c>
       <c r="D210" t="n">
-        <v>1.757</v>
+        <v>1.756</v>
       </c>
       <c r="E210" t="n">
-        <v>1.757</v>
+        <v>1.756</v>
       </c>
       <c r="F210" t="n">
-        <v>17085.993</v>
+        <v>19282.9145</v>
       </c>
       <c r="G210" t="n">
-        <v>1.7385</v>
+        <v>1.737933333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7803,9 +8065,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7820,22 +8080,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.724</v>
+        <v>1.757</v>
       </c>
       <c r="C211" t="n">
-        <v>1.72</v>
+        <v>1.757</v>
       </c>
       <c r="D211" t="n">
-        <v>1.724</v>
+        <v>1.757</v>
       </c>
       <c r="E211" t="n">
-        <v>1.72</v>
+        <v>1.757</v>
       </c>
       <c r="F211" t="n">
-        <v>292636.2094</v>
+        <v>17085.993</v>
       </c>
       <c r="G211" t="n">
-        <v>1.737883333333333</v>
+        <v>1.7385</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7844,9 +8104,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,22 +8119,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.719</v>
+        <v>1.724</v>
       </c>
       <c r="C212" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="D212" t="n">
-        <v>1.719</v>
+        <v>1.724</v>
       </c>
       <c r="E212" t="n">
-        <v>1.715</v>
+        <v>1.72</v>
       </c>
       <c r="F212" t="n">
-        <v>157744.4725</v>
+        <v>292636.2094</v>
       </c>
       <c r="G212" t="n">
-        <v>1.73715</v>
+        <v>1.737883333333333</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7885,9 +8143,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7902,22 +8158,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="C213" t="n">
         <v>1.715</v>
       </c>
       <c r="D213" t="n">
-        <v>1.715</v>
+        <v>1.719</v>
       </c>
       <c r="E213" t="n">
         <v>1.715</v>
       </c>
       <c r="F213" t="n">
-        <v>18225.7011</v>
+        <v>157744.4725</v>
       </c>
       <c r="G213" t="n">
-        <v>1.736883333333334</v>
+        <v>1.73715</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7926,9 +8182,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7943,22 +8197,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="C214" t="n">
-        <v>1.708</v>
+        <v>1.715</v>
       </c>
       <c r="D214" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="E214" t="n">
-        <v>1.708</v>
+        <v>1.715</v>
       </c>
       <c r="F214" t="n">
-        <v>74392.3331</v>
+        <v>18225.7011</v>
       </c>
       <c r="G214" t="n">
-        <v>1.736033333333334</v>
+        <v>1.736883333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7967,9 +8221,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7984,22 +8236,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="C215" t="n">
         <v>1.708</v>
       </c>
       <c r="D215" t="n">
-        <v>1.708</v>
+        <v>1.71</v>
       </c>
       <c r="E215" t="n">
         <v>1.708</v>
       </c>
       <c r="F215" t="n">
-        <v>841092.8242</v>
+        <v>74392.3331</v>
       </c>
       <c r="G215" t="n">
-        <v>1.735166666666667</v>
+        <v>1.736033333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8008,9 +8260,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8025,22 +8275,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.729</v>
+        <v>1.708</v>
       </c>
       <c r="C216" t="n">
-        <v>1.729</v>
+        <v>1.708</v>
       </c>
       <c r="D216" t="n">
-        <v>1.729</v>
+        <v>1.708</v>
       </c>
       <c r="E216" t="n">
-        <v>1.709</v>
+        <v>1.708</v>
       </c>
       <c r="F216" t="n">
-        <v>3048448.55</v>
+        <v>841092.8242</v>
       </c>
       <c r="G216" t="n">
-        <v>1.734966666666667</v>
+        <v>1.735166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8049,9 +8299,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8066,10 +8314,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.709</v>
+        <v>1.729</v>
       </c>
       <c r="C217" t="n">
-        <v>1.709</v>
+        <v>1.729</v>
       </c>
       <c r="D217" t="n">
         <v>1.729</v>
@@ -8078,10 +8326,10 @@
         <v>1.709</v>
       </c>
       <c r="F217" t="n">
-        <v>1241732</v>
+        <v>3048448.55</v>
       </c>
       <c r="G217" t="n">
-        <v>1.734683333333333</v>
+        <v>1.734966666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8090,9 +8338,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8107,22 +8353,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.73</v>
+        <v>1.709</v>
       </c>
       <c r="C218" t="n">
-        <v>1.73</v>
+        <v>1.709</v>
       </c>
       <c r="D218" t="n">
-        <v>1.73</v>
+        <v>1.729</v>
       </c>
       <c r="E218" t="n">
-        <v>1.73</v>
+        <v>1.709</v>
       </c>
       <c r="F218" t="n">
-        <v>290</v>
+        <v>1241732</v>
       </c>
       <c r="G218" t="n">
-        <v>1.7342</v>
+        <v>1.734683333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8131,9 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8148,22 +8392,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.714</v>
+        <v>1.73</v>
       </c>
       <c r="C219" t="n">
-        <v>1.714</v>
+        <v>1.73</v>
       </c>
       <c r="D219" t="n">
-        <v>1.714</v>
+        <v>1.73</v>
       </c>
       <c r="E219" t="n">
-        <v>1.714</v>
+        <v>1.73</v>
       </c>
       <c r="F219" t="n">
-        <v>18422.8674</v>
+        <v>290</v>
       </c>
       <c r="G219" t="n">
-        <v>1.733916666666667</v>
+        <v>1.7342</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8172,9 +8416,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8189,22 +8431,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.73</v>
+        <v>1.714</v>
       </c>
       <c r="C220" t="n">
-        <v>1.73</v>
+        <v>1.714</v>
       </c>
       <c r="D220" t="n">
-        <v>1.73</v>
+        <v>1.714</v>
       </c>
       <c r="E220" t="n">
-        <v>1.73</v>
+        <v>1.714</v>
       </c>
       <c r="F220" t="n">
-        <v>290</v>
+        <v>18422.8674</v>
       </c>
       <c r="G220" t="n">
-        <v>1.733433333333334</v>
+        <v>1.733916666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8213,9 +8455,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8233,19 +8473,19 @@
         <v>1.73</v>
       </c>
       <c r="C221" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="D221" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="E221" t="n">
         <v>1.73</v>
       </c>
       <c r="F221" t="n">
-        <v>489323.387</v>
+        <v>290</v>
       </c>
       <c r="G221" t="n">
-        <v>1.733266666666667</v>
+        <v>1.733433333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8254,9 +8494,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8271,7 +8509,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="C222" t="n">
         <v>1.731</v>
@@ -8280,13 +8518,13 @@
         <v>1.731</v>
       </c>
       <c r="E222" t="n">
-        <v>1.731</v>
+        <v>1.73</v>
       </c>
       <c r="F222" t="n">
-        <v>1250.8474</v>
+        <v>489323.387</v>
       </c>
       <c r="G222" t="n">
-        <v>1.7331</v>
+        <v>1.733266666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8295,9 +8533,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8315,19 +8551,19 @@
         <v>1.731</v>
       </c>
       <c r="C223" t="n">
-        <v>1.729</v>
+        <v>1.731</v>
       </c>
       <c r="D223" t="n">
         <v>1.731</v>
       </c>
       <c r="E223" t="n">
-        <v>1.729</v>
+        <v>1.731</v>
       </c>
       <c r="F223" t="n">
-        <v>317519.6197</v>
+        <v>1250.8474</v>
       </c>
       <c r="G223" t="n">
-        <v>1.7329</v>
+        <v>1.7331</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8336,9 +8572,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,22 +8587,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1.744</v>
+        <v>1.731</v>
       </c>
       <c r="C224" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="D224" t="n">
-        <v>1.744</v>
+        <v>1.731</v>
       </c>
       <c r="E224" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="F224" t="n">
-        <v>62789.56422018349</v>
+        <v>317519.6197</v>
       </c>
       <c r="G224" t="n">
-        <v>1.73295</v>
+        <v>1.7329</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8377,9 +8611,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8394,22 +8626,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="C225" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="D225" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="E225" t="n">
-        <v>1.729</v>
+        <v>1.744</v>
       </c>
       <c r="F225" t="n">
-        <v>603681.8953</v>
+        <v>62789.56422018349</v>
       </c>
       <c r="G225" t="n">
-        <v>1.73275</v>
+        <v>1.73295</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8418,9 +8650,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8435,22 +8665,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="C226" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="D226" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="E226" t="n">
-        <v>1.744</v>
+        <v>1.729</v>
       </c>
       <c r="F226" t="n">
-        <v>40095.3339</v>
+        <v>603681.8953</v>
       </c>
       <c r="G226" t="n">
-        <v>1.7328</v>
+        <v>1.73275</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8459,9 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8488,10 +8716,10 @@
         <v>1.744</v>
       </c>
       <c r="F227" t="n">
-        <v>100397.0939798165</v>
+        <v>40095.3339</v>
       </c>
       <c r="G227" t="n">
-        <v>1.732283333333333</v>
+        <v>1.7328</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8500,9 +8728,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8517,22 +8743,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.759</v>
+        <v>1.744</v>
       </c>
       <c r="C228" t="n">
-        <v>1.741</v>
+        <v>1.744</v>
       </c>
       <c r="D228" t="n">
-        <v>1.759</v>
+        <v>1.744</v>
       </c>
       <c r="E228" t="n">
-        <v>1.741</v>
+        <v>1.744</v>
       </c>
       <c r="F228" t="n">
-        <v>2883208</v>
+        <v>100397.0939798165</v>
       </c>
       <c r="G228" t="n">
-        <v>1.731733333333333</v>
+        <v>1.732283333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8541,9 +8767,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8570,10 +8794,10 @@
         <v>1.741</v>
       </c>
       <c r="F229" t="n">
-        <v>841274</v>
+        <v>2883208</v>
       </c>
       <c r="G229" t="n">
-        <v>1.73155</v>
+        <v>1.731733333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8582,9 +8806,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,10 +8833,10 @@
         <v>1.741</v>
       </c>
       <c r="F230" t="n">
-        <v>806674</v>
+        <v>841274</v>
       </c>
       <c r="G230" t="n">
-        <v>1.731383333333333</v>
+        <v>1.73155</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8623,9 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8652,10 +8872,10 @@
         <v>1.741</v>
       </c>
       <c r="F231" t="n">
-        <v>2897668</v>
+        <v>806674</v>
       </c>
       <c r="G231" t="n">
-        <v>1.731366666666666</v>
+        <v>1.731383333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8664,9 +8884,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,7 +8902,7 @@
         <v>1.759</v>
       </c>
       <c r="C232" t="n">
-        <v>1.758</v>
+        <v>1.741</v>
       </c>
       <c r="D232" t="n">
         <v>1.759</v>
@@ -8693,10 +8911,10 @@
         <v>1.741</v>
       </c>
       <c r="F232" t="n">
-        <v>1499825</v>
+        <v>2897668</v>
       </c>
       <c r="G232" t="n">
-        <v>1.731633333333333</v>
+        <v>1.731366666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8705,9 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8722,22 +8938,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.741</v>
+        <v>1.759</v>
       </c>
       <c r="C233" t="n">
-        <v>1.741</v>
+        <v>1.758</v>
       </c>
       <c r="D233" t="n">
-        <v>1.758</v>
+        <v>1.759</v>
       </c>
       <c r="E233" t="n">
         <v>1.741</v>
       </c>
       <c r="F233" t="n">
-        <v>1733141</v>
+        <v>1499825</v>
       </c>
       <c r="G233" t="n">
-        <v>1.731616666666666</v>
+        <v>1.731633333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8746,9 +8962,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8763,22 +8977,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.757</v>
+        <v>1.741</v>
       </c>
       <c r="C234" t="n">
-        <v>1.757</v>
+        <v>1.741</v>
       </c>
       <c r="D234" t="n">
-        <v>1.757</v>
+        <v>1.758</v>
       </c>
       <c r="E234" t="n">
         <v>1.741</v>
       </c>
       <c r="F234" t="n">
-        <v>2327653</v>
+        <v>1733141</v>
       </c>
       <c r="G234" t="n">
-        <v>1.7316</v>
+        <v>1.731616666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8787,9 +9001,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8807,7 +9019,7 @@
         <v>1.757</v>
       </c>
       <c r="C235" t="n">
-        <v>1.741</v>
+        <v>1.757</v>
       </c>
       <c r="D235" t="n">
         <v>1.757</v>
@@ -8816,7 +9028,7 @@
         <v>1.741</v>
       </c>
       <c r="F235" t="n">
-        <v>2156190</v>
+        <v>2327653</v>
       </c>
       <c r="G235" t="n">
         <v>1.7316</v>
@@ -8828,15 +9040,52 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1.719</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
       <c r="M235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2156190</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1.7316</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest AOA.xlsx
+++ b/BackTest/2020-01-25 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:N246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>765221</v>
       </c>
       <c r="G2" t="n">
+        <v>1.727466666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.736349999999998</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>359937.6832</v>
       </c>
       <c r="G3" t="n">
+        <v>1.727333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.736449999999998</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1439154.71</v>
       </c>
       <c r="G4" t="n">
+        <v>1.727066666666668</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.736566666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2152342</v>
       </c>
       <c r="G5" t="n">
+        <v>1.727333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.736649999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>335532.2067</v>
       </c>
       <c r="G6" t="n">
+        <v>1.727200000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.736616666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2141015</v>
       </c>
       <c r="G7" t="n">
+        <v>1.726800000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.736616666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>18245.812</v>
       </c>
       <c r="G8" t="n">
+        <v>1.726333333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.736149999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>648622.416</v>
       </c>
       <c r="G9" t="n">
+        <v>1.725800000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.735916666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>874.1679</v>
       </c>
       <c r="G10" t="n">
+        <v>1.725200000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.735866666666665</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>431190</v>
       </c>
       <c r="G11" t="n">
+        <v>1.724666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.735183333333332</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2155203</v>
       </c>
       <c r="G12" t="n">
+        <v>1.723800000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.734866666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1477023</v>
       </c>
       <c r="G13" t="n">
+        <v>1.726533333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.734983333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>2492300</v>
       </c>
       <c r="G14" t="n">
+        <v>1.726200000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.734816666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>2742201</v>
       </c>
       <c r="G15" t="n">
+        <v>1.723466666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.734649999999999</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>793459</v>
       </c>
       <c r="G16" t="n">
+        <v>1.723133333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.734483333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3608127</v>
       </c>
       <c r="G17" t="n">
+        <v>1.722800000000001</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.734316666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>744709</v>
       </c>
       <c r="G18" t="n">
+        <v>1.722600000000001</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.73355</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3180916</v>
       </c>
       <c r="G19" t="n">
+        <v>1.725266666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.733583333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>477248</v>
       </c>
       <c r="G20" t="n">
+        <v>1.725666666666668</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.733583333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>1024307</v>
       </c>
       <c r="G21" t="n">
+        <v>1.728866666666667</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.734166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>2718945.1761</v>
       </c>
       <c r="G22" t="n">
+        <v>1.729000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.734</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>944625</v>
       </c>
       <c r="G23" t="n">
+        <v>1.7322</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.734583333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>2571225</v>
       </c>
       <c r="G24" t="n">
+        <v>1.733200000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.734016666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>292.8032</v>
       </c>
       <c r="G25" t="n">
+        <v>1.7366</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.734616666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>707729</v>
       </c>
       <c r="G26" t="n">
+        <v>1.738866666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.73495</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2099184</v>
       </c>
       <c r="G27" t="n">
+        <v>1.741266666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.734683333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1312322</v>
       </c>
       <c r="G28" t="n">
+        <v>1.740066666666668</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.734966666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>718720</v>
       </c>
       <c r="G29" t="n">
+        <v>1.741866666666668</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.734700000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>2895165.1006</v>
       </c>
       <c r="G30" t="n">
+        <v>1.741333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.734400000000001</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>22057.814</v>
       </c>
       <c r="G31" t="n">
+        <v>1.743066666666668</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.734650000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>4940.1192</v>
       </c>
       <c r="G32" t="n">
+        <v>1.745200000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.735016666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1002336.9549</v>
       </c>
       <c r="G33" t="n">
+        <v>1.747266666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.734783333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1907678.9262</v>
       </c>
       <c r="G34" t="n">
+        <v>1.744266666666668</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.734616666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1673444.4727</v>
       </c>
       <c r="G35" t="n">
+        <v>1.744800000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.734166666666668</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1651.4886</v>
       </c>
       <c r="G36" t="n">
+        <v>1.743000000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.734300000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>645.9392</v>
       </c>
       <c r="G37" t="n">
+        <v>1.744200000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.733850000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>657.0771999999999</v>
       </c>
       <c r="G38" t="n">
+        <v>1.742400000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.734066666666668</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4524.2059</v>
       </c>
       <c r="G39" t="n">
+        <v>1.741866666666668</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.733366666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3845.5371</v>
       </c>
       <c r="G40" t="n">
+        <v>1.738866666666668</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.733216666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>29895.5368</v>
       </c>
       <c r="G41" t="n">
+        <v>1.736866666666668</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.733050000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>622577</v>
       </c>
       <c r="G42" t="n">
+        <v>1.735133333333335</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.732900000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>2955262</v>
       </c>
       <c r="G43" t="n">
+        <v>1.733400000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.732166666666668</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>840708.0169</v>
       </c>
       <c r="G44" t="n">
+        <v>1.732733333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.732283333333335</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2799345.0607</v>
       </c>
       <c r="G45" t="n">
+        <v>1.733866666666668</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.731683333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1764.6377</v>
       </c>
       <c r="G46" t="n">
+        <v>1.732733333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.731666666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2120.492</v>
       </c>
       <c r="G47" t="n">
+        <v>1.731200000000001</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.731666666666668</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>2025.5638</v>
       </c>
       <c r="G48" t="n">
+        <v>1.729733333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.731733333333335</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>335.0583</v>
       </c>
       <c r="G49" t="n">
+        <v>1.730333333333335</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.731733333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>371.2582</v>
       </c>
       <c r="G50" t="n">
+        <v>1.729733333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.731883333333335</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>14127.8668</v>
       </c>
       <c r="G51" t="n">
+        <v>1.729133333333335</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.732050000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>11000</v>
       </c>
       <c r="G52" t="n">
+        <v>1.728533333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.732133333333335</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>179.6966</v>
       </c>
       <c r="G53" t="n">
+        <v>1.727933333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.732216666666669</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>90251.3492</v>
       </c>
       <c r="G54" t="n">
+        <v>1.728266666666668</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.732283333333335</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>29492.8845</v>
       </c>
       <c r="G55" t="n">
+        <v>1.728800000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.732366666666669</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>288</v>
       </c>
       <c r="G56" t="n">
+        <v>1.729866666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.732566666666669</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1000.8986</v>
       </c>
       <c r="G57" t="n">
+        <v>1.730133333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.732583333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>71265.2605</v>
       </c>
       <c r="G58" t="n">
+        <v>1.730400000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.732600000000002</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,22 +2619,21 @@
         <v>897.5616</v>
       </c>
       <c r="G59" t="n">
+        <v>1.729533333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.732583333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.726</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,24 +2657,21 @@
         <v>153045.5342</v>
       </c>
       <c r="G60" t="n">
+        <v>1.729200000000001</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.731966666666669</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,1547 +2695,1599 @@
         <v>639457.5074999999</v>
       </c>
       <c r="G61" t="n">
+        <v>1.728933333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.731966666666669</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="F62" t="n">
+        <v>300</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.729400000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.732150000000002</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F63" t="n">
+        <v>299043.7451</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.729400000000001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.732250000000002</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="F64" t="n">
+        <v>972521.5087</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.731266666666667</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.732783333333335</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F65" t="n">
+        <v>302997.1208</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.733600000000001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.733450000000002</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1427437</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.733666666666668</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.733666666666668</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2214294</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.733733333333334</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.733866666666668</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F68" t="n">
+        <v>163061.5914</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.734400000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.734233333333335</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F69" t="n">
+        <v>288</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.735133333333334</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.734616666666668</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4217.6626</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.735200000000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.734866666666668</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F71" t="n">
+        <v>65514.5485</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.735400000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.735250000000002</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F72" t="n">
+        <v>37967.6072</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.735733333333334</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.735566666666668</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F73" t="n">
+        <v>32.3928</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.736066666666668</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.734983333333335</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3751.7847</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.737066666666668</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.735300000000001</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3329.0723</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.738000000000001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.735600000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="F76" t="n">
+        <v>599</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.738933333333334</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.735916666666668</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="F77" t="n">
+        <v>862</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.739066666666667</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.736216666666668</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.4681</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.739666666666668</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.736516666666668</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1630678</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.738400000000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.736066666666668</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1.727</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.737</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.737</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1.727</v>
-      </c>
-      <c r="F62" t="n">
-        <v>300</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.732150000000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2688198</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.735666666666668</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.735950000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>1.73</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C81" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E81" t="n">
         <v>1.73</v>
       </c>
-      <c r="D63" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F63" t="n">
-        <v>299043.7451</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1.732250000000002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="F81" t="n">
+        <v>24465.9574</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.736133333333334</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.735483333333334</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1.737</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1.758</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.758</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E82" t="n">
         <v>1.723</v>
       </c>
-      <c r="F64" t="n">
-        <v>972521.5087</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.732783333333335</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="F82" t="n">
+        <v>3313832.6084</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.736666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.735783333333334</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F65" t="n">
-        <v>302997.1208</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1.733450000000002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="F83" t="n">
+        <v>505762</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.735533333333334</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.735066666666668</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1427437</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.733666666666668</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2927</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.735466666666668</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.735183333333334</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="C85" t="n">
         <v>1.778</v>
       </c>
-      <c r="C67" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="D85" t="n">
         <v>1.778</v>
       </c>
-      <c r="E67" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2214294</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1.733866666666668</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E85" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1610.2663</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.738600000000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.735366666666668</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F68" t="n">
-        <v>163061.5914</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.734233333333335</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1823688</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.738666666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.735200000000001</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F69" t="n">
-        <v>288</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1.734616666666668</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.732</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1739288</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.738733333333334</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.734933333333334</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="F70" t="n">
-        <v>4217.6626</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1.734866666666668</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F88" t="n">
+        <v>11251.6238</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.739333333333334</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.734800000000001</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="F71" t="n">
-        <v>65514.5485</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1.735250000000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5104.9423</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.738933333333334</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.734566666666667</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="E72" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="F72" t="n">
-        <v>37967.6072</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.735566666666668</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F90" t="n">
+        <v>403.7839</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.735016666666667</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="F73" t="n">
-        <v>32.3928</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.734983333333335</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F91" t="n">
+        <v>391.6702</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.734900000000001</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>1.74</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C92" t="n">
         <v>1.74</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D92" t="n">
         <v>1.74</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E92" t="n">
         <v>1.74</v>
       </c>
-      <c r="F74" t="n">
-        <v>3751.7847</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.735300000000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="F92" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.739066666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.734683333333334</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3329.0723</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.735600000000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F93" t="n">
+        <v>288</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.739133333333333</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.734483333333334</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
         <v>1.74</v>
       </c>
-      <c r="D76" t="n">
+      <c r="C94" t="n">
         <v>1.74</v>
       </c>
-      <c r="E76" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="F76" t="n">
-        <v>599</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.735916666666668</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="D94" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5100.5933</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.7392</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.7348</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="F77" t="n">
-        <v>862</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1.736216666666668</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F95" t="n">
+        <v>288</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.740266666666666</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.734816666666667</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.4681</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.736516666666668</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F96" t="n">
+        <v>36395.6326</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.7416</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.735133333333333</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1630678</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.736066666666668</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2334640</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.740533333333333</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.734866666666667</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2688198</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1.735950000000001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1317151</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.740533333333333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.7346</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.738</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="F81" t="n">
-        <v>24465.9574</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.735483333333334</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="F99" t="n">
+        <v>304.4687</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.742266666666666</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1.735283333333333</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="F82" t="n">
-        <v>3313832.6084</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1.735783333333334</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="F83" t="n">
-        <v>505762</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.735066666666668</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.739</v>
-      </c>
-      <c r="F84" t="n">
-        <v>2927</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1.735183333333334</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C100" t="n">
         <v>1.778</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D100" t="n">
         <v>1.778</v>
       </c>
-      <c r="E85" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1610.2663</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1.735366666666668</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1823688</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.735200000000001</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.775</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1.732</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1739288</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.734933333333334</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.726</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="E100" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="F100" t="n">
+        <v>783601.1152</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.742266666666666</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.736216666666667</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>0.9984762456546928</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F88" t="n">
-        <v>11251.6238</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1.734800000000001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1.734</v>
-      </c>
-      <c r="C89" t="n">
-        <v>1.734</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.734</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1.734</v>
-      </c>
-      <c r="F89" t="n">
-        <v>5104.9423</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.734566666666667</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C90" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F90" t="n">
-        <v>403.7839</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.735016666666667</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C91" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F91" t="n">
-        <v>391.6702</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1.734900000000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C92" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F92" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1.734683333333334</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F93" t="n">
-        <v>288</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.734483333333334</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C94" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5100.5933</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.7348</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C95" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F95" t="n">
-        <v>288</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.734816666666667</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="C96" t="n">
-        <v>1.758</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.758</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="F96" t="n">
-        <v>36395.6326</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.735133333333333</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="F97" t="n">
-        <v>2334640</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.734866666666667</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E98" t="n">
-        <v>1.723</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1317151</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.7346</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="C99" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="E99" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="F99" t="n">
-        <v>304.4687</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.735283333333333</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.765</v>
-      </c>
-      <c r="C100" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.778</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1.724</v>
-      </c>
-      <c r="F100" t="n">
-        <v>783601.1152</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.736216666666667</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4085,18 +4309,21 @@
         <v>2740367.44</v>
       </c>
       <c r="G101" t="n">
+        <v>1.741133333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.736266666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,18 +4347,21 @@
         <v>309.3011</v>
       </c>
       <c r="G102" t="n">
+        <v>1.7436</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.73705</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4155,18 +4385,21 @@
         <v>283</v>
       </c>
       <c r="G103" t="n">
+        <v>1.745466666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.737816666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,18 +4423,21 @@
         <v>293.9683</v>
       </c>
       <c r="G104" t="n">
+        <v>1.747533333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.738266666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4225,18 +4461,21 @@
         <v>1471542.1195</v>
       </c>
       <c r="G105" t="n">
+        <v>1.746333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.738133333333334</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4260,18 +4499,21 @@
         <v>2103742.88</v>
       </c>
       <c r="G106" t="n">
+        <v>1.745266666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.738033333333334</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,18 +4537,21 @@
         <v>1490682.44</v>
       </c>
       <c r="G107" t="n">
+        <v>1.745733333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.738316666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,18 +4575,21 @@
         <v>1246893</v>
       </c>
       <c r="G108" t="n">
+        <v>1.745133333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.738333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4365,18 +4613,21 @@
         <v>658956</v>
       </c>
       <c r="G109" t="n">
+        <v>1.744533333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.73835</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,18 +4651,21 @@
         <v>555024.8391</v>
       </c>
       <c r="G110" t="n">
+        <v>1.743333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.738216666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4435,18 +4689,21 @@
         <v>21463.9301</v>
       </c>
       <c r="G111" t="n">
+        <v>1.740933333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.738083333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4470,18 +4727,21 @@
         <v>5899.6183</v>
       </c>
       <c r="G112" t="n">
+        <v>1.740800000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.737933333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,18 +4765,21 @@
         <v>3022374.88</v>
       </c>
       <c r="G113" t="n">
+        <v>1.740666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.737783333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,18 +4803,21 @@
         <v>656839</v>
       </c>
       <c r="G114" t="n">
+        <v>1.737600000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.737616666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4575,18 +4841,21 @@
         <v>164625.1609</v>
       </c>
       <c r="G115" t="n">
+        <v>1.733600000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.737416666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4610,18 +4879,21 @@
         <v>6063.2908</v>
       </c>
       <c r="G116" t="n">
+        <v>1.733133333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.737083333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4645,18 +4917,21 @@
         <v>25595.3169</v>
       </c>
       <c r="G117" t="n">
+        <v>1.729666666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.736933333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4680,18 +4955,21 @@
         <v>1341873.5995</v>
       </c>
       <c r="G118" t="n">
+        <v>1.726533333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.73685</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4715,18 +4993,21 @@
         <v>1155654.28</v>
       </c>
       <c r="G119" t="n">
+        <v>1.723600000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.736783333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,18 +5031,21 @@
         <v>2274543.44</v>
       </c>
       <c r="G120" t="n">
+        <v>1.723533333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.736716666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4785,18 +5069,21 @@
         <v>2186602.44</v>
       </c>
       <c r="G121" t="n">
+        <v>1.723400000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.73665</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,18 +5107,21 @@
         <v>2094814.44</v>
       </c>
       <c r="G122" t="n">
+        <v>1.721733333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.7364</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4855,18 +5145,21 @@
         <v>3111862.1359</v>
       </c>
       <c r="G123" t="n">
+        <v>1.723333333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.736816666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4890,18 +5183,21 @@
         <v>547498</v>
       </c>
       <c r="G124" t="n">
+        <v>1.723333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.736366666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4925,18 +5221,21 @@
         <v>2305223.44</v>
       </c>
       <c r="G125" t="n">
+        <v>1.725666666666668</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.736233333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4960,18 +5259,21 @@
         <v>1350012.44</v>
       </c>
       <c r="G126" t="n">
+        <v>1.726400000000001</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.736266666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4995,18 +5297,21 @@
         <v>285</v>
       </c>
       <c r="G127" t="n">
+        <v>1.728866666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.736716666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5030,18 +5335,21 @@
         <v>825482</v>
       </c>
       <c r="G128" t="n">
+        <v>1.729666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.7366</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5065,18 +5373,21 @@
         <v>3043341.44</v>
       </c>
       <c r="G129" t="n">
+        <v>1.730466666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.73645</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5100,18 +5411,21 @@
         <v>1624026.44</v>
       </c>
       <c r="G130" t="n">
+        <v>1.733066666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.736883333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5135,18 +5449,21 @@
         <v>2001806.44</v>
       </c>
       <c r="G131" t="n">
+        <v>1.734133333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.736766666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5170,18 +5487,21 @@
         <v>3017806.91</v>
       </c>
       <c r="G132" t="n">
+        <v>1.736933333333334</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.737233333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5205,18 +5525,21 @@
         <v>810798</v>
       </c>
       <c r="G133" t="n">
+        <v>1.738266666666668</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.7374</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,18 +5563,21 @@
         <v>3272657.44</v>
       </c>
       <c r="G134" t="n">
+        <v>1.740133333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.73755</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,18 +5601,21 @@
         <v>548938</v>
       </c>
       <c r="G135" t="n">
+        <v>1.740200000000001</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.737266666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5310,18 +5639,21 @@
         <v>1757686.44</v>
       </c>
       <c r="G136" t="n">
+        <v>1.741333333333334</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.73725</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5345,18 +5677,21 @@
         <v>2834345.44</v>
       </c>
       <c r="G137" t="n">
+        <v>1.741933333333334</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.737116666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5380,18 +5715,21 @@
         <v>286</v>
       </c>
       <c r="G138" t="n">
+        <v>1.741533333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.737283333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5415,18 +5753,21 @@
         <v>1052087.6403</v>
       </c>
       <c r="G139" t="n">
+        <v>1.742733333333334</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.73745</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5450,18 +5791,21 @@
         <v>2662024.44</v>
       </c>
       <c r="G140" t="n">
+        <v>1.741000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.737566666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5485,18 +5829,21 @@
         <v>254492</v>
       </c>
       <c r="G141" t="n">
+        <v>1.742733333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.737916666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5520,18 +5867,21 @@
         <v>3581861.633260791</v>
       </c>
       <c r="G142" t="n">
+        <v>1.743533333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.738433333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,18 +5905,21 @@
         <v>2256156.652</v>
       </c>
       <c r="G143" t="n">
+        <v>1.743533333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.7386</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,18 +5943,21 @@
         <v>2202144</v>
       </c>
       <c r="G144" t="n">
+        <v>1.746600000000001</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.739233333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5625,18 +5981,21 @@
         <v>1197517</v>
       </c>
       <c r="G145" t="n">
+        <v>1.744866666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.73845</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,18 +6019,21 @@
         <v>2220201</v>
       </c>
       <c r="G146" t="n">
+        <v>1.744733333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.738283333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5695,18 +6057,21 @@
         <v>2266360</v>
       </c>
       <c r="G147" t="n">
+        <v>1.743000000000001</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.7383</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5730,18 +6095,21 @@
         <v>1835627</v>
       </c>
       <c r="G148" t="n">
+        <v>1.744133333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.738599999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5765,18 +6133,21 @@
         <v>1941066</v>
       </c>
       <c r="G149" t="n">
+        <v>1.742933333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.73855</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,18 +6171,21 @@
         <v>1722506</v>
       </c>
       <c r="G150" t="n">
+        <v>1.745200000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.738816666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5835,18 +6209,21 @@
         <v>2806842</v>
       </c>
       <c r="G151" t="n">
+        <v>1.744133333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.738533333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5870,18 +6247,21 @@
         <v>838.3142</v>
       </c>
       <c r="G152" t="n">
+        <v>1.745866666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.738816666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,18 +6285,21 @@
         <v>1755438</v>
       </c>
       <c r="G153" t="n">
+        <v>1.746533333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.739133333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5940,18 +6323,21 @@
         <v>1820347.56</v>
       </c>
       <c r="G154" t="n">
+        <v>1.745333333333335</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.738983333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,18 +6361,21 @@
         <v>5000</v>
       </c>
       <c r="G155" t="n">
+        <v>1.747200000000001</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.7393</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6010,18 +6399,21 @@
         <v>1000</v>
       </c>
       <c r="G156" t="n">
+        <v>1.747266666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.739333333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6045,18 +6437,21 @@
         <v>2713214.56</v>
       </c>
       <c r="G157" t="n">
+        <v>1.745333333333335</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.739633333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,18 +6475,21 @@
         <v>830015</v>
       </c>
       <c r="G158" t="n">
+        <v>1.744866666666668</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.739683333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6115,18 +6513,21 @@
         <v>1406756.56</v>
       </c>
       <c r="G159" t="n">
+        <v>1.743666666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.739583333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6150,18 +6551,21 @@
         <v>2345963</v>
       </c>
       <c r="G160" t="n">
+        <v>1.743666666666668</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.7388</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6185,18 +6589,21 @@
         <v>1532348.8708</v>
       </c>
       <c r="G161" t="n">
+        <v>1.745533333333334</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.739383333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,18 +6627,21 @@
         <v>2704249.56</v>
       </c>
       <c r="G162" t="n">
+        <v>1.746066666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.738916666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6255,18 +6665,21 @@
         <v>1373256</v>
       </c>
       <c r="G163" t="n">
+        <v>1.744933333333334</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.738466666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6290,18 +6703,21 @@
         <v>2052094</v>
       </c>
       <c r="G164" t="n">
+        <v>1.745600000000001</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.738066666666666</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6325,18 +6741,21 @@
         <v>1578254</v>
       </c>
       <c r="G165" t="n">
+        <v>1.744600000000001</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.738383333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6360,18 +6779,21 @@
         <v>3004893</v>
       </c>
       <c r="G166" t="n">
+        <v>1.745800000000001</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.738666666666667</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6395,18 +6817,21 @@
         <v>3653436</v>
       </c>
       <c r="G167" t="n">
+        <v>1.744733333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.738566666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6430,18 +6855,21 @@
         <v>113322.0116980282</v>
       </c>
       <c r="G168" t="n">
+        <v>1.7458</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.7393</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6465,18 +6893,21 @@
         <v>1623113</v>
       </c>
       <c r="G169" t="n">
+        <v>1.748666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.740016666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,18 +6931,21 @@
         <v>1946496</v>
       </c>
       <c r="G170" t="n">
+        <v>1.7482</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.740516666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6535,18 +6969,21 @@
         <v>2163268</v>
       </c>
       <c r="G171" t="n">
+        <v>1.7476</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.741</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6570,18 +7007,21 @@
         <v>1547424</v>
       </c>
       <c r="G172" t="n">
+        <v>1.747666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.74135</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,24 +7045,21 @@
         <v>2315982.889141558</v>
       </c>
       <c r="G173" t="n">
+        <v>1.748733333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.7417</v>
       </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.742</v>
+        <v>0</v>
       </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6646,24 +7083,21 @@
         <v>1514060</v>
       </c>
       <c r="G174" t="n">
+        <v>1.747600000000001</v>
+      </c>
+      <c r="H174" t="n">
         <v>1.742083333333334</v>
       </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>1.742</v>
+        <v>0</v>
       </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6687,22 +7121,21 @@
         <v>1321725</v>
       </c>
       <c r="G175" t="n">
+        <v>1.749400000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>1.74275</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6726,22 +7159,21 @@
         <v>2574826</v>
       </c>
       <c r="G176" t="n">
+        <v>1.7482</v>
+      </c>
+      <c r="H176" t="n">
         <v>1.74315</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,22 +7197,21 @@
         <v>2376488</v>
       </c>
       <c r="G177" t="n">
+        <v>1.7482</v>
+      </c>
+      <c r="H177" t="n">
         <v>1.74355</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6804,22 +7235,21 @@
         <v>2167403</v>
       </c>
       <c r="G178" t="n">
+        <v>1.748133333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>1.743866666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6843,22 +7273,21 @@
         <v>1000</v>
       </c>
       <c r="G179" t="n">
+        <v>1.749133333333334</v>
+      </c>
+      <c r="H179" t="n">
         <v>1.74445</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6882,22 +7311,21 @@
         <v>459496</v>
       </c>
       <c r="G180" t="n">
+        <v>1.749133333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>1.744783333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6921,22 +7349,21 @@
         <v>2856703</v>
       </c>
       <c r="G181" t="n">
+        <v>1.749133333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>1.7451</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6960,22 +7387,21 @@
         <v>1652.8981</v>
       </c>
       <c r="G182" t="n">
+        <v>1.750333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>1.745716666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6999,22 +7425,21 @@
         <v>3387884.2959</v>
       </c>
       <c r="G183" t="n">
+        <v>1.747666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>1.745383333333334</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7038,22 +7463,21 @@
         <v>1279.7468</v>
       </c>
       <c r="G184" t="n">
+        <v>1.7466</v>
+      </c>
+      <c r="H184" t="n">
         <v>1.745833333333334</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7077,22 +7501,21 @@
         <v>850291.2662</v>
       </c>
       <c r="G185" t="n">
+        <v>1.745333333333334</v>
+      </c>
+      <c r="H185" t="n">
         <v>1.745433333333334</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,22 +7539,21 @@
         <v>647460</v>
       </c>
       <c r="G186" t="n">
+        <v>1.744266666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>1.745466666666667</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7155,22 +7577,21 @@
         <v>3064139</v>
       </c>
       <c r="G187" t="n">
+        <v>1.7452</v>
+      </c>
+      <c r="H187" t="n">
         <v>1.745433333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7194,22 +7615,21 @@
         <v>538688</v>
       </c>
       <c r="G188" t="n">
+        <v>1.744666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>1.74545</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7233,22 +7653,21 @@
         <v>31403.8904</v>
       </c>
       <c r="G189" t="n">
+        <v>1.743533333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>1.74535</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7272,24 +7691,21 @@
         <v>359445.1142</v>
       </c>
       <c r="G190" t="n">
+        <v>1.7418</v>
+      </c>
+      <c r="H190" t="n">
         <v>1.744933333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>1.725</v>
+        <v>0</v>
       </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7313,22 +7729,21 @@
         <v>554850.2068</v>
       </c>
       <c r="G191" t="n">
+        <v>1.739733333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>1.74455</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7352,24 +7767,21 @@
         <v>653930</v>
       </c>
       <c r="G192" t="n">
+        <v>1.740666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>1.744483333333333</v>
       </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7393,22 +7805,21 @@
         <v>2775713</v>
       </c>
       <c r="G193" t="n">
+        <v>1.739466666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>1.744166666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7432,22 +7843,21 @@
         <v>24333.2451</v>
       </c>
       <c r="G194" t="n">
+        <v>1.737066666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>1.743683333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7471,22 +7881,21 @@
         <v>412668.125227907</v>
       </c>
       <c r="G195" t="n">
+        <v>1.735666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>1.74365</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7510,22 +7919,21 @@
         <v>2487.2652</v>
       </c>
       <c r="G196" t="n">
+        <v>1.734200000000001</v>
+      </c>
+      <c r="H196" t="n">
         <v>1.743316666666666</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7549,22 +7957,21 @@
         <v>2430472</v>
       </c>
       <c r="G197" t="n">
+        <v>1.731466666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>1.7431</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,22 +7995,21 @@
         <v>1303621.0951</v>
       </c>
       <c r="G198" t="n">
+        <v>1.730400000000001</v>
+      </c>
+      <c r="H198" t="n">
         <v>1.7426</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7627,22 +8033,21 @@
         <v>800</v>
       </c>
       <c r="G199" t="n">
+        <v>1.727800000000001</v>
+      </c>
+      <c r="H199" t="n">
         <v>1.7421</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7666,22 +8071,21 @@
         <v>4000</v>
       </c>
       <c r="G200" t="n">
+        <v>1.726866666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>1.7419</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7705,22 +8109,21 @@
         <v>11378.1729</v>
       </c>
       <c r="G201" t="n">
+        <v>1.725000000000001</v>
+      </c>
+      <c r="H201" t="n">
         <v>1.741033333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,22 +8147,21 @@
         <v>35831.39534883721</v>
       </c>
       <c r="G202" t="n">
+        <v>1.722600000000001</v>
+      </c>
+      <c r="H202" t="n">
         <v>1.7402</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,22 +8185,21 @@
         <v>2994603</v>
       </c>
       <c r="G203" t="n">
+        <v>1.720866666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>1.739783333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7822,22 +8223,21 @@
         <v>775015.0252</v>
       </c>
       <c r="G204" t="n">
+        <v>1.719733333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>1.738633333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7861,22 +8261,21 @@
         <v>161383.9803</v>
       </c>
       <c r="G205" t="n">
+        <v>1.718133333333334</v>
+      </c>
+      <c r="H205" t="n">
         <v>1.73825</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7900,22 +8299,21 @@
         <v>500000</v>
       </c>
       <c r="G206" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="H206" t="n">
         <v>1.737866666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7939,22 +8337,21 @@
         <v>260323</v>
       </c>
       <c r="G207" t="n">
+        <v>1.718133333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>1.738266666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7978,22 +8375,21 @@
         <v>2956380.37</v>
       </c>
       <c r="G208" t="n">
+        <v>1.717533333333334</v>
+      </c>
+      <c r="H208" t="n">
         <v>1.737516666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8017,22 +8413,21 @@
         <v>5000</v>
       </c>
       <c r="G209" t="n">
+        <v>1.719933333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>1.737933333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8056,22 +8451,21 @@
         <v>19282.9145</v>
       </c>
       <c r="G210" t="n">
+        <v>1.722333333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>1.737933333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8095,22 +8489,21 @@
         <v>17085.993</v>
       </c>
       <c r="G211" t="n">
+        <v>1.724866666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>1.7385</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8134,22 +8527,21 @@
         <v>292636.2094</v>
       </c>
       <c r="G212" t="n">
+        <v>1.725000000000001</v>
+      </c>
+      <c r="H212" t="n">
         <v>1.737883333333333</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8173,22 +8565,21 @@
         <v>157744.4725</v>
       </c>
       <c r="G213" t="n">
+        <v>1.724733333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>1.73715</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8212,22 +8603,21 @@
         <v>18225.7011</v>
       </c>
       <c r="G214" t="n">
+        <v>1.724466666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>1.736883333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8251,22 +8641,21 @@
         <v>74392.3331</v>
       </c>
       <c r="G215" t="n">
+        <v>1.723733333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>1.736033333333334</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8290,22 +8679,21 @@
         <v>841092.8242</v>
       </c>
       <c r="G216" t="n">
+        <v>1.7238</v>
+      </c>
+      <c r="H216" t="n">
         <v>1.735166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8329,22 +8717,21 @@
         <v>3048448.55</v>
       </c>
       <c r="G217" t="n">
+        <v>1.7244</v>
+      </c>
+      <c r="H217" t="n">
         <v>1.734966666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8368,22 +8755,21 @@
         <v>1241732</v>
       </c>
       <c r="G218" t="n">
+        <v>1.724466666666667</v>
+      </c>
+      <c r="H218" t="n">
         <v>1.734683333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8407,22 +8793,21 @@
         <v>290</v>
       </c>
       <c r="G219" t="n">
+        <v>1.725933333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>1.7342</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8446,22 +8831,21 @@
         <v>18422.8674</v>
       </c>
       <c r="G220" t="n">
+        <v>1.726333333333333</v>
+      </c>
+      <c r="H220" t="n">
         <v>1.733916666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8485,22 +8869,21 @@
         <v>290</v>
       </c>
       <c r="G221" t="n">
+        <v>1.7278</v>
+      </c>
+      <c r="H221" t="n">
         <v>1.733433333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8524,22 +8907,21 @@
         <v>489323.387</v>
       </c>
       <c r="G222" t="n">
+        <v>1.726066666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>1.733266666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8563,22 +8945,21 @@
         <v>1250.8474</v>
       </c>
       <c r="G223" t="n">
+        <v>1.727266666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>1.7331</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8602,22 +8983,21 @@
         <v>317519.6197</v>
       </c>
       <c r="G224" t="n">
+        <v>1.725466666666667</v>
+      </c>
+      <c r="H224" t="n">
         <v>1.7329</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8641,22 +9021,21 @@
         <v>62789.56422018349</v>
       </c>
       <c r="G225" t="n">
+        <v>1.724666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>1.73295</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8680,22 +9059,21 @@
         <v>603681.8953</v>
       </c>
       <c r="G226" t="n">
+        <v>1.7228</v>
+      </c>
+      <c r="H226" t="n">
         <v>1.73275</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8719,22 +9097,21 @@
         <v>40095.3339</v>
       </c>
       <c r="G227" t="n">
+        <v>1.7244</v>
+      </c>
+      <c r="H227" t="n">
         <v>1.7328</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8758,22 +9135,21 @@
         <v>100397.0939798165</v>
       </c>
       <c r="G228" t="n">
+        <v>1.726333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>1.732283333333333</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8797,22 +9173,21 @@
         <v>2883208</v>
       </c>
       <c r="G229" t="n">
+        <v>1.728066666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>1.731733333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8836,22 +9211,21 @@
         <v>841274</v>
       </c>
       <c r="G230" t="n">
+        <v>1.730266666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>1.73155</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8875,22 +9249,21 @@
         <v>806674</v>
       </c>
       <c r="G231" t="n">
+        <v>1.732466666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>1.731383333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8914,22 +9287,21 @@
         <v>2897668</v>
       </c>
       <c r="G232" t="n">
+        <v>1.733266666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>1.731366666666666</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,22 +9325,21 @@
         <v>1499825</v>
       </c>
       <c r="G233" t="n">
+        <v>1.736533333333334</v>
+      </c>
+      <c r="H233" t="n">
         <v>1.731633333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8992,22 +9363,21 @@
         <v>1733141</v>
       </c>
       <c r="G234" t="n">
+        <v>1.737266666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>1.731616666666666</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9031,22 +9401,21 @@
         <v>2327653</v>
       </c>
       <c r="G235" t="n">
+        <v>1.740133333333334</v>
+      </c>
+      <c r="H235" t="n">
         <v>1.7316</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9070,22 +9439,401 @@
         <v>2156190</v>
       </c>
       <c r="G236" t="n">
+        <v>1.740866666666667</v>
+      </c>
+      <c r="H236" t="n">
         <v>1.7316</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2962315.01</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1.7408</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1.731416666666667</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F238" t="n">
+        <v>671864</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1.740733333333334</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1.73125</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E239" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F239" t="n">
+        <v>496650.6418</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1.7408</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1.730816666666667</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F240" t="n">
+        <v>65470.2835</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.739866666666667</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1.730633333333333</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3098694</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.741733333333334</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.7309</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F242" t="n">
+        <v>449400</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.741533333333334</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.7306</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="F243" t="n">
+        <v>946288</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.742333333333334</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.73095</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3135246.2746</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.742400000000001</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.730683333333334</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.756</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="F245" t="n">
+        <v>113205.4517</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1.743400000000001</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1.731066666666667</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="F246" t="n">
+        <v>61153.1628</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1.744466666666667</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1.731433333333334</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-25 BackTest AOA.xlsx
+++ b/BackTest/2020-01-25 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N304"/>
+  <dimension ref="A1:M304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,19 @@
         <v>-13816898.4388</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>1.737</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.737</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4219,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4258,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4297,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4330,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4363,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4394,19 @@
         <v>-13477082.238</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>1.737</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.737</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4433,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4472,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4511,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4550,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4589,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4628,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4667,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4706,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4745,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4784,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4823,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4860,23 @@
         <v>-13442187.026</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>1.74</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4903,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4940,23 @@
         <v>-13442450.026</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>1.74</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4981,23 @@
         <v>-13442450.026</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1.739</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +5022,23 @@
         <v>-13442450.026</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>1.739</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +5063,23 @@
         <v>-16130648.026</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>1.739</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +5104,23 @@
         <v>-16106182.0686</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>1.724</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5147,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5186,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5225,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +5262,21 @@
         <v>-13293574.1939</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5301,21 @@
         <v>-15117262.1939</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>0.9973028209556708</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5340,15 @@
         <v>-16856550.1939</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5375,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5408,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5441,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5474,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5507,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,22 +5538,15 @@
         <v>-16849999.7285</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5860,26 +5571,19 @@
         <v>-16849999.7285</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="J152" t="n">
         <v>1.74</v>
       </c>
-      <c r="K152" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5904,26 +5608,23 @@
         <v>-16849999.7285</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="J153" t="n">
         <v>1.74</v>
       </c>
-      <c r="K153" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5948,26 +5649,23 @@
         <v>-16813604.09590001</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="J154" t="n">
         <v>1.74</v>
       </c>
-      <c r="K154" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5992,24 +5690,21 @@
         <v>-19148244.09590001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6034,24 +5729,23 @@
         <v>-19148244.09590001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>1.723</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6078,22 +5772,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6120,22 +5811,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6162,22 +5850,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6204,22 +5889,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6246,22 +5928,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6286,24 +5965,21 @@
         <v>-21104973.61920001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6330,22 +6006,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6372,22 +6045,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6414,22 +6084,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6456,22 +6123,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6498,22 +6162,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6540,22 +6201,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6582,22 +6240,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6624,22 +6279,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6666,22 +6318,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6708,22 +6357,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6750,22 +6396,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6792,22 +6435,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6834,22 +6474,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6876,22 +6513,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6918,22 +6552,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6960,22 +6591,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7002,22 +6630,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7044,22 +6669,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7086,22 +6708,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7128,22 +6747,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7170,22 +6786,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7212,22 +6825,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7254,22 +6864,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7296,22 +6903,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7338,22 +6942,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7380,22 +6981,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7422,22 +7020,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7464,22 +7059,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7506,22 +7098,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7548,22 +7137,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7590,22 +7176,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7632,22 +7215,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7674,22 +7254,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7716,22 +7293,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7758,22 +7332,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7800,22 +7371,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7842,22 +7410,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7884,22 +7449,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7926,22 +7488,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7968,22 +7527,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8010,22 +7566,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8052,22 +7605,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8094,22 +7644,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8136,22 +7683,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8178,22 +7722,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8220,22 +7761,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8262,22 +7800,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8304,22 +7839,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8346,22 +7878,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8388,22 +7917,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8430,22 +7956,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8472,22 +7995,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8514,22 +8034,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8556,22 +8073,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8598,22 +8112,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8640,22 +8151,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8682,22 +8190,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8724,22 +8229,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8766,22 +8268,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8808,22 +8307,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8850,22 +8346,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8892,22 +8385,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8934,22 +8424,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8976,22 +8463,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9018,22 +8502,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9060,22 +8541,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1.001896551724138</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9102,16 +8580,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9138,16 +8619,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9174,16 +8658,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9210,16 +8697,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9246,16 +8736,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9282,16 +8775,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9318,16 +8814,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9354,16 +8853,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9390,16 +8892,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9426,16 +8931,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9462,16 +8970,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9498,16 +9009,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9534,16 +9048,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9570,16 +9087,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9606,16 +9126,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9642,16 +9165,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9678,16 +9204,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9714,16 +9243,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9750,16 +9282,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9786,16 +9321,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9822,16 +9360,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9858,16 +9399,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9894,16 +9438,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9930,16 +9477,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9966,16 +9516,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10002,16 +9555,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10038,16 +9594,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10074,16 +9633,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10110,16 +9672,19 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10144,18 +9709,23 @@
         <v>-35284944.93984117</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+        <v>1.719</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10182,16 +9752,19 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10218,16 +9791,19 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10254,16 +9830,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10290,16 +9869,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10326,16 +9908,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10362,16 +9947,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10398,16 +9986,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10434,16 +10025,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10470,16 +10064,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10506,16 +10103,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10542,16 +10142,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10578,16 +10181,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10614,16 +10220,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10650,16 +10259,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10686,16 +10298,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10720,22 +10335,21 @@
         <v>-41453839.10939232</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="K274" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+        <v>1.74</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10762,22 +10376,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10804,22 +10415,19 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10846,16 +10454,19 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10882,16 +10493,19 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10918,16 +10532,19 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10954,16 +10571,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10990,16 +10610,19 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11026,16 +10649,19 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11062,16 +10688,19 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11098,16 +10727,19 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11134,16 +10766,19 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11170,16 +10805,19 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11206,16 +10844,19 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11242,16 +10883,19 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11278,16 +10922,19 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11314,16 +10961,19 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11350,16 +11000,19 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11386,16 +11039,19 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11422,16 +11078,19 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11458,16 +11117,19 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11494,16 +11156,19 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11530,16 +11195,19 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11566,16 +11234,19 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11602,16 +11273,19 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11638,16 +11312,19 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11674,16 +11351,19 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11710,16 +11390,19 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11746,16 +11429,19 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11782,16 +11468,19 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11818,18 +11507,21 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest AOA.xlsx
+++ b/BackTest/2020-01-25 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-151245.7527000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3431296.7275</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-16850403.51240001</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-16849999.7285</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-18982090.41870001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-20228983.41870001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-20789907.8761</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-20789907.8761</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-21446746.8761</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-21617435.32780001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-18088959.2883</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-14977097.1524</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-15524595.1524</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-13219371.7124</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-14569384.1524</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-15394581.1524</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-13787018.04913921</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8998,11 +8998,17 @@
         <v>-38255094.71739233</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1.72</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9041,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9078,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9115,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9152,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9189,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9226,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9263,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9300,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9337,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9374,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9411,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9448,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9485,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9522,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9559,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9596,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9633,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9670,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +9707,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +9744,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,15 +9777,13 @@
         <v>-39493161.65949231</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1.731</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -10248,11 +10332,9 @@
         <v>-45901334.66667213</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10287,11 +10369,9 @@
         <v>-45901334.66667213</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10363,11 +10443,9 @@
         <v>-43252040.66667213</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1.757</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -10439,11 +10517,9 @@
         <v>-45440998.94127213</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1.756</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -10530,6 +10606,6 @@
       <c r="M304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest AOA.xlsx
+++ b/BackTest/2020-01-25 BackTest AOA.xlsx
@@ -616,7 +616,7 @@
         <v>-151245.7527000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3457471.3531</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3431296.7275</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-6309295.3345</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-1659718.2274</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2177498.2274</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4852172.803199999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-13629000.6085</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-13629000.6085</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-13465939.0171</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-13465939.0171</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-13441588.026</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-13442450.026</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-13442450.026</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-15117262.1939</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-16856550.1939</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-16845298.57010001</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-16850403.51240001</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-19148244.09590001</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-19148244.09590001</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-19147939.62720001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-18364338.51200001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-21104705.95200001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-21104679.65090001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-21104973.61920001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-20228983.41870001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-20784008.25780001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-20784008.25780001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,10 +5995,14 @@
         <v>-20789907.8761</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.722</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
@@ -6028,11 +6032,19 @@
         <v>-20789907.8761</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6076,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6154,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6193,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6271,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6349,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6388,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6427,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6466,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6544,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6583,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6622,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6661,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6700,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6739,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +6778,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +6817,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +6856,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +6895,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +6973,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7012,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7051,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7090,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7129,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7168,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7207,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7246,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7285,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7324,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7363,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7402,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7441,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7480,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7519,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7558,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7597,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7636,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7675,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7714,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7753,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7792,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7831,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7870,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +7948,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +7987,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8026,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8065,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8104,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8143,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,13 +8179,19 @@
         <v>-19561048.62444118</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L226" t="n">
-        <v>1</v>
+        <v>1.025778164924506</v>
       </c>
       <c r="M226" t="inlineStr"/>
     </row>
@@ -7876,7 +8218,7 @@
         <v>-21184161.62444118</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +8251,7 @@
         <v>-23130657.62444118</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +8284,7 @@
         <v>-25293925.62444118</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +8317,7 @@
         <v>-26841349.62444118</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8140,7 +8482,7 @@
         <v>-28094450.62444118</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8515,7 @@
         <v>-30261853.62444118</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8548,7 @@
         <v>-30260853.62444118</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8581,7 @@
         <v>-30720349.62444118</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8614,7 @@
         <v>-30720349.62444118</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8647,7 @@
         <v>-30718696.72634118</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8680,7 @@
         <v>-34106581.02224118</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8713,7 @@
         <v>-34105301.27544118</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8998,17 +9340,11 @@
         <v>-38255094.71739233</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9041,11 +9377,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9078,11 +9410,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9115,11 +9443,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9152,11 +9476,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9189,11 +9509,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9226,11 +9542,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9263,11 +9575,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9300,11 +9608,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9337,11 +9641,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9374,11 +9674,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9411,11 +9707,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9448,11 +9740,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9481,15 +9769,15 @@
         <v>-41453839.10939232</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9518,13 +9806,17 @@
         <v>-38405390.55939232</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1.708</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9558,10 +9850,12 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>1.708</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9596,11 +9890,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9633,11 +9923,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9670,11 +9956,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9707,11 +9989,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9744,11 +10022,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9777,13 +10051,15 @@
         <v>-39493161.65949231</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1.731</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9925,9 +10201,11 @@
         <v>-39993958.65667213</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1.744</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10073,9 +10351,11 @@
         <v>-42877166.65667213</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1.741</v>
+      </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10332,9 +10612,11 @@
         <v>-45901334.66667213</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1.73</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10369,9 +10651,11 @@
         <v>-45901334.66667213</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1.73</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10406,9 +10690,11 @@
         <v>-42802640.66667213</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1.73</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -10443,9 +10729,11 @@
         <v>-43252040.66667213</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1.757</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>

--- a/BackTest/2020-01-25 BackTest AOA.xlsx
+++ b/BackTest/2020-01-25 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M304"/>
+  <dimension ref="A1:L304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>612889</v>
       </c>
       <c r="G2" t="n">
-        <v>3021776.0073</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2748727</v>
       </c>
       <c r="G3" t="n">
-        <v>5770503.0073</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>609040</v>
       </c>
       <c r="G4" t="n">
-        <v>5770503.0073</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2724292.76</v>
       </c>
       <c r="G5" t="n">
-        <v>3046210.2473</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>248649</v>
       </c>
       <c r="G6" t="n">
-        <v>3294859.2473</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>3446105</v>
       </c>
       <c r="G7" t="n">
-        <v>-151245.7527000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>726074</v>
       </c>
       <c r="G8" t="n">
-        <v>-877319.7527000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1033050</v>
       </c>
       <c r="G9" t="n">
-        <v>155730.2472999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2591023</v>
       </c>
       <c r="G10" t="n">
-        <v>-2435292.7527</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>54265.3996</v>
       </c>
       <c r="G11" t="n">
-        <v>-2381027.3531</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1076444</v>
       </c>
       <c r="G12" t="n">
-        <v>-3457471.3531</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2734884.44</v>
       </c>
       <c r="G13" t="n">
-        <v>-3457471.3531</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2828806</v>
       </c>
       <c r="G14" t="n">
-        <v>-3457471.3531</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>685164</v>
       </c>
       <c r="G15" t="n">
-        <v>-3457471.3531</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>26174.6256</v>
       </c>
       <c r="G16" t="n">
-        <v>-3431296.7275</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>18084.607</v>
       </c>
       <c r="G17" t="n">
-        <v>-3449381.3345</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2859914</v>
       </c>
       <c r="G18" t="n">
-        <v>-6309295.3345</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>654475</v>
       </c>
       <c r="G19" t="n">
-        <v>-6309295.3345</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1506961</v>
       </c>
       <c r="G20" t="n">
-        <v>-6309295.3345</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2318922</v>
       </c>
       <c r="G21" t="n">
-        <v>-6309295.3345</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2314805</v>
       </c>
       <c r="G22" t="n">
-        <v>-3994490.3345</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1209445</v>
       </c>
       <c r="G23" t="n">
-        <v>-5203935.3345</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>674237</v>
       </c>
       <c r="G24" t="n">
-        <v>-5203935.3345</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3358144</v>
       </c>
       <c r="G25" t="n">
-        <v>-1845791.3345</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>471752</v>
       </c>
       <c r="G26" t="n">
-        <v>-2317543.3345</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3169052</v>
       </c>
       <c r="G27" t="n">
-        <v>851508.6655000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>485802</v>
       </c>
       <c r="G28" t="n">
-        <v>365706.6655000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>700235</v>
       </c>
       <c r="G29" t="n">
-        <v>1065941.6655</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2636566</v>
       </c>
       <c r="G30" t="n">
-        <v>-1570624.3345</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2461826</v>
       </c>
       <c r="G31" t="n">
-        <v>891201.6655000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1851417</v>
       </c>
       <c r="G32" t="n">
-        <v>-960215.3344999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3104404</v>
       </c>
       <c r="G33" t="n">
-        <v>2144188.6655</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>655113</v>
       </c>
       <c r="G34" t="n">
-        <v>1489075.6655</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1816025</v>
       </c>
       <c r="G35" t="n">
-        <v>3305100.6655</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2671247</v>
       </c>
       <c r="G36" t="n">
-        <v>633853.6655000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>2087684</v>
       </c>
       <c r="G37" t="n">
-        <v>2721537.6655</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1463381</v>
       </c>
       <c r="G38" t="n">
-        <v>1258156.6655</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2785066</v>
       </c>
       <c r="G39" t="n">
-        <v>1258156.6655</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>650365</v>
       </c>
       <c r="G40" t="n">
-        <v>1258156.6655</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1763730</v>
       </c>
       <c r="G41" t="n">
-        <v>3021886.6655</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1936969</v>
       </c>
       <c r="G42" t="n">
-        <v>1084917.6655</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1351465</v>
       </c>
       <c r="G43" t="n">
-        <v>2436382.6655</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2905354</v>
       </c>
       <c r="G44" t="n">
-        <v>-468971.3344999999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>69596.8524</v>
       </c>
       <c r="G45" t="n">
-        <v>-538568.1868999999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2062530.1057</v>
       </c>
       <c r="G46" t="n">
-        <v>-2601098.2926</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>521.0355</v>
       </c>
       <c r="G47" t="n">
-        <v>-2600577.2571</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1195975.4639</v>
       </c>
       <c r="G48" t="n">
-        <v>-3796552.721</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>60493.5064</v>
       </c>
       <c r="G49" t="n">
-        <v>-3857046.2274</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2197328</v>
       </c>
       <c r="G50" t="n">
-        <v>-1659718.2274</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1386383</v>
       </c>
       <c r="G51" t="n">
-        <v>-1659718.2274</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1862383</v>
       </c>
       <c r="G52" t="n">
-        <v>-1659718.2274</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1488732</v>
       </c>
       <c r="G53" t="n">
-        <v>-1659718.2274</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1899456</v>
       </c>
       <c r="G54" t="n">
-        <v>-1659718.2274</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>1570428</v>
       </c>
       <c r="G55" t="n">
-        <v>-1659718.2274</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1520999</v>
       </c>
       <c r="G56" t="n">
-        <v>-1659718.2274</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2422856</v>
       </c>
       <c r="G57" t="n">
-        <v>763137.7726000003</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>213955</v>
       </c>
       <c r="G58" t="n">
-        <v>977092.7726000003</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3154591</v>
       </c>
       <c r="G59" t="n">
-        <v>-2177498.2274</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>765221</v>
       </c>
       <c r="G60" t="n">
-        <v>-2177498.2274</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>359937.6832</v>
       </c>
       <c r="G61" t="n">
-        <v>-2537435.9106</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1439154.71</v>
       </c>
       <c r="G62" t="n">
-        <v>-1098281.2006</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2152342</v>
       </c>
       <c r="G63" t="n">
-        <v>-3250623.2006</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>335532.2067</v>
       </c>
       <c r="G64" t="n">
-        <v>-3586155.4073</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2141015</v>
       </c>
       <c r="G65" t="n">
-        <v>-1445140.4073</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>18245.812</v>
       </c>
       <c r="G66" t="n">
-        <v>-1463386.2193</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>648622.416</v>
       </c>
       <c r="G67" t="n">
-        <v>-2112008.635299999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>874.1679</v>
       </c>
       <c r="G68" t="n">
-        <v>-2112882.803199999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>431190</v>
       </c>
       <c r="G69" t="n">
-        <v>-1681692.803199999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2155203</v>
       </c>
       <c r="G70" t="n">
-        <v>-3836895.803199999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1477023</v>
       </c>
       <c r="G71" t="n">
-        <v>-2359872.803199999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>2492300</v>
       </c>
       <c r="G72" t="n">
-        <v>-4852172.803199999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>2742201</v>
       </c>
       <c r="G73" t="n">
-        <v>-4852172.803199999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>793459</v>
       </c>
       <c r="G74" t="n">
-        <v>-4852172.803199999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>3608127</v>
       </c>
       <c r="G75" t="n">
-        <v>-4852172.803199999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>744709</v>
       </c>
       <c r="G76" t="n">
-        <v>-4852172.803199999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3180916</v>
       </c>
       <c r="G77" t="n">
-        <v>-1671256.803199999</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>477248</v>
       </c>
       <c r="G78" t="n">
-        <v>-2148504.803199999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1024307</v>
       </c>
       <c r="G79" t="n">
-        <v>-1124197.803199999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2718945.1761</v>
       </c>
       <c r="G80" t="n">
-        <v>-3843142.979299999</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>944625</v>
       </c>
       <c r="G81" t="n">
-        <v>-2898517.979299999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>2571225</v>
       </c>
       <c r="G82" t="n">
-        <v>-5469742.979299999</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>292.8032</v>
       </c>
       <c r="G83" t="n">
-        <v>-5469450.176099999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>707729</v>
       </c>
       <c r="G84" t="n">
-        <v>-6177179.176099999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>2099184</v>
       </c>
       <c r="G85" t="n">
-        <v>-8276363.176099999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1312322</v>
       </c>
       <c r="G86" t="n">
-        <v>-8276363.176099999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>718720</v>
       </c>
       <c r="G87" t="n">
-        <v>-8276363.176099999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>2895165.1006</v>
       </c>
       <c r="G88" t="n">
-        <v>-11171528.2767</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>22057.814</v>
       </c>
       <c r="G89" t="n">
-        <v>-11149470.4627</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>4940.1192</v>
       </c>
       <c r="G90" t="n">
-        <v>-11144530.3435</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1002336.9549</v>
       </c>
       <c r="G91" t="n">
-        <v>-12146867.2984</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1907678.9262</v>
       </c>
       <c r="G92" t="n">
-        <v>-14054546.2246</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1673444.4727</v>
       </c>
       <c r="G93" t="n">
-        <v>-12381101.7519</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1651.4886</v>
       </c>
       <c r="G94" t="n">
-        <v>-12381101.7519</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>645.9392</v>
       </c>
       <c r="G95" t="n">
-        <v>-12381101.7519</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>657.0771999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-12381101.7519</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>4524.2059</v>
       </c>
       <c r="G97" t="n">
-        <v>-12385625.9578</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>3845.5371</v>
       </c>
       <c r="G98" t="n">
-        <v>-12389471.4949</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>29895.5368</v>
       </c>
       <c r="G99" t="n">
-        <v>-12419367.0317</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>622577</v>
       </c>
       <c r="G100" t="n">
-        <v>-11796790.0317</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>2955262</v>
       </c>
       <c r="G101" t="n">
-        <v>-11796790.0317</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>840708.0169</v>
       </c>
       <c r="G102" t="n">
-        <v>-10956082.0148</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2799345.0607</v>
       </c>
       <c r="G103" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1764.6377</v>
       </c>
       <c r="G104" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2120.492</v>
       </c>
       <c r="G105" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>2025.5638</v>
       </c>
       <c r="G106" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>335.0583</v>
       </c>
       <c r="G107" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>371.2582</v>
       </c>
       <c r="G108" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>14127.8668</v>
       </c>
       <c r="G109" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>11000</v>
       </c>
       <c r="G110" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>179.6966</v>
       </c>
       <c r="G111" t="n">
-        <v>-13755427.0755</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,19 @@
         <v>90251.3492</v>
       </c>
       <c r="G112" t="n">
-        <v>-13845678.4247</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.73</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3777,23 @@
         <v>29492.8845</v>
       </c>
       <c r="G113" t="n">
-        <v>-13816185.5402</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>1.729</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3815,21 @@
         <v>288</v>
       </c>
       <c r="G114" t="n">
-        <v>-13815897.5402</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3851,15 @@
         <v>1000.8986</v>
       </c>
       <c r="G115" t="n">
-        <v>-13816898.4388</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3881,15 @@
         <v>71265.2605</v>
       </c>
       <c r="G116" t="n">
-        <v>-13816898.4388</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3911,15 @@
         <v>897.5616</v>
       </c>
       <c r="G117" t="n">
-        <v>-13817796.0004</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3941,15 @@
         <v>153045.5342</v>
       </c>
       <c r="G118" t="n">
-        <v>-13817796.0004</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3971,15 @@
         <v>639457.5074999999</v>
       </c>
       <c r="G119" t="n">
-        <v>-13178338.4929</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4001,15 @@
         <v>300</v>
       </c>
       <c r="G120" t="n">
-        <v>-13178038.4929</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4031,15 @@
         <v>299043.7451</v>
       </c>
       <c r="G121" t="n">
-        <v>-13477082.238</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4061,15 @@
         <v>972521.5087</v>
       </c>
       <c r="G122" t="n">
-        <v>-12504560.7293</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4091,15 @@
         <v>302997.1208</v>
       </c>
       <c r="G123" t="n">
-        <v>-12201563.6085</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4121,15 @@
         <v>1427437</v>
       </c>
       <c r="G124" t="n">
-        <v>-13629000.6085</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4151,15 @@
         <v>2214294</v>
       </c>
       <c r="G125" t="n">
-        <v>-13629000.6085</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4181,15 @@
         <v>163061.5914</v>
       </c>
       <c r="G126" t="n">
-        <v>-13465939.0171</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4211,15 @@
         <v>288</v>
       </c>
       <c r="G127" t="n">
-        <v>-13465939.0171</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4241,15 @@
         <v>4217.6626</v>
       </c>
       <c r="G128" t="n">
-        <v>-13470156.6797</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4271,15 @@
         <v>65514.5485</v>
       </c>
       <c r="G129" t="n">
-        <v>-13404642.1312</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4301,15 @@
         <v>37967.6072</v>
       </c>
       <c r="G130" t="n">
-        <v>-13442609.7384</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4331,15 @@
         <v>32.3928</v>
       </c>
       <c r="G131" t="n">
-        <v>-13442609.7384</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4361,15 @@
         <v>3751.7847</v>
       </c>
       <c r="G132" t="n">
-        <v>-13438857.9537</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4391,15 @@
         <v>3329.0723</v>
       </c>
       <c r="G133" t="n">
-        <v>-13442187.026</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4421,15 @@
         <v>599</v>
       </c>
       <c r="G134" t="n">
-        <v>-13441588.026</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4451,15 @@
         <v>862</v>
       </c>
       <c r="G135" t="n">
-        <v>-13442450.026</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4481,15 @@
         <v>0.4681</v>
       </c>
       <c r="G136" t="n">
-        <v>-13442450.026</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4511,21 @@
         <v>1630678</v>
       </c>
       <c r="G137" t="n">
-        <v>-13442450.026</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1.739</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4547,21 @@
         <v>2688198</v>
       </c>
       <c r="G138" t="n">
-        <v>-16130648.026</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1.739</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4583,21 @@
         <v>24465.9574</v>
       </c>
       <c r="G139" t="n">
-        <v>-16106182.0686</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1.724</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4619,21 @@
         <v>3313832.6084</v>
       </c>
       <c r="G140" t="n">
-        <v>-12792349.4602</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1.738</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4655,19 @@
         <v>505762</v>
       </c>
       <c r="G141" t="n">
-        <v>-13298111.4602</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4689,19 @@
         <v>2927</v>
       </c>
       <c r="G142" t="n">
-        <v>-13295184.4602</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4723,19 @@
         <v>1610.2663</v>
       </c>
       <c r="G143" t="n">
-        <v>-13293574.1939</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4757,19 @@
         <v>1823688</v>
       </c>
       <c r="G144" t="n">
-        <v>-15117262.1939</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4791,19 @@
         <v>1739288</v>
       </c>
       <c r="G145" t="n">
-        <v>-16856550.1939</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4825,19 @@
         <v>11251.6238</v>
       </c>
       <c r="G146" t="n">
-        <v>-16845298.57010001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4859,19 @@
         <v>5104.9423</v>
       </c>
       <c r="G147" t="n">
-        <v>-16850403.51240001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4893,19 @@
         <v>403.7839</v>
       </c>
       <c r="G148" t="n">
-        <v>-16849999.7285</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4927,19 @@
         <v>391.6702</v>
       </c>
       <c r="G149" t="n">
-        <v>-16849999.7285</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4961,19 @@
         <v>60000</v>
       </c>
       <c r="G150" t="n">
-        <v>-16849999.7285</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4995,19 @@
         <v>288</v>
       </c>
       <c r="G151" t="n">
-        <v>-16849999.7285</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5029,19 @@
         <v>5100.5933</v>
       </c>
       <c r="G152" t="n">
-        <v>-16849999.7285</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5063,19 @@
         <v>288</v>
       </c>
       <c r="G153" t="n">
-        <v>-16849999.7285</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5097,19 @@
         <v>36395.6326</v>
       </c>
       <c r="G154" t="n">
-        <v>-16813604.09590001</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5131,19 @@
         <v>2334640</v>
       </c>
       <c r="G155" t="n">
-        <v>-19148244.09590001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5165,19 @@
         <v>1317151</v>
       </c>
       <c r="G156" t="n">
-        <v>-19148244.09590001</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5199,19 @@
         <v>304.4687</v>
       </c>
       <c r="G157" t="n">
-        <v>-19147939.62720001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5233,19 @@
         <v>783601.1152</v>
       </c>
       <c r="G158" t="n">
-        <v>-18364338.51200001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5267,19 @@
         <v>2740367.44</v>
       </c>
       <c r="G159" t="n">
-        <v>-21104705.95200001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5301,19 @@
         <v>309.3011</v>
       </c>
       <c r="G160" t="n">
-        <v>-21104396.65090001</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5335,19 @@
         <v>283</v>
       </c>
       <c r="G161" t="n">
-        <v>-21104679.65090001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5369,19 @@
         <v>293.9683</v>
       </c>
       <c r="G162" t="n">
-        <v>-21104973.61920001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5403,19 @@
         <v>1471542.1195</v>
       </c>
       <c r="G163" t="n">
-        <v>-22576515.73870001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5437,19 @@
         <v>2103742.88</v>
       </c>
       <c r="G164" t="n">
-        <v>-20472772.85870001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5471,19 @@
         <v>1490682.44</v>
       </c>
       <c r="G165" t="n">
-        <v>-18982090.41870001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5505,19 @@
         <v>1246893</v>
       </c>
       <c r="G166" t="n">
-        <v>-20228983.41870001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5539,19 @@
         <v>658956</v>
       </c>
       <c r="G167" t="n">
-        <v>-20228983.41870001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5573,19 @@
         <v>555024.8391</v>
       </c>
       <c r="G168" t="n">
-        <v>-20784008.25780001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5607,19 @@
         <v>21463.9301</v>
       </c>
       <c r="G169" t="n">
-        <v>-20784008.25780001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,22 +5641,19 @@
         <v>5899.6183</v>
       </c>
       <c r="G170" t="n">
-        <v>-20789907.8761</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6029,26 +5675,19 @@
         <v>3022374.88</v>
       </c>
       <c r="G171" t="n">
-        <v>-20789907.8761</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1.721</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6070,24 +5709,19 @@
         <v>656839</v>
       </c>
       <c r="G172" t="n">
-        <v>-21446746.8761</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6109,24 +5743,19 @@
         <v>164625.1609</v>
       </c>
       <c r="G173" t="n">
-        <v>-21611372.037</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6148,24 +5777,19 @@
         <v>6063.2908</v>
       </c>
       <c r="G174" t="n">
-        <v>-21617435.32780001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6187,24 +5811,19 @@
         <v>25595.3169</v>
       </c>
       <c r="G175" t="n">
-        <v>-21617435.32780001</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6226,24 +5845,19 @@
         <v>1341873.5995</v>
       </c>
       <c r="G176" t="n">
-        <v>-20275561.72830001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6265,24 +5879,19 @@
         <v>1155654.28</v>
       </c>
       <c r="G177" t="n">
-        <v>-20275561.72830001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6304,24 +5913,19 @@
         <v>2274543.44</v>
       </c>
       <c r="G178" t="n">
-        <v>-20275561.72830001</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6343,24 +5947,19 @@
         <v>2186602.44</v>
       </c>
       <c r="G179" t="n">
-        <v>-18088959.2883</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6382,24 +5981,19 @@
         <v>2094814.44</v>
       </c>
       <c r="G180" t="n">
-        <v>-18088959.2883</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6421,24 +6015,19 @@
         <v>3111862.1359</v>
       </c>
       <c r="G181" t="n">
-        <v>-14977097.1524</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6460,24 +6049,19 @@
         <v>547498</v>
       </c>
       <c r="G182" t="n">
-        <v>-15524595.1524</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6499,24 +6083,19 @@
         <v>2305223.44</v>
       </c>
       <c r="G183" t="n">
-        <v>-13219371.7124</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6538,24 +6117,19 @@
         <v>1350012.44</v>
       </c>
       <c r="G184" t="n">
-        <v>-14569384.1524</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6577,24 +6151,19 @@
         <v>285</v>
       </c>
       <c r="G185" t="n">
-        <v>-14569099.1524</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6616,24 +6185,19 @@
         <v>825482</v>
       </c>
       <c r="G186" t="n">
-        <v>-15394581.1524</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6655,24 +6219,19 @@
         <v>3043341.44</v>
       </c>
       <c r="G187" t="n">
-        <v>-18437922.5924</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6694,24 +6253,19 @@
         <v>1624026.44</v>
       </c>
       <c r="G188" t="n">
-        <v>-16813896.1524</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6733,24 +6287,19 @@
         <v>2001806.44</v>
       </c>
       <c r="G189" t="n">
-        <v>-18815702.5924</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6772,24 +6321,19 @@
         <v>3017806.91</v>
       </c>
       <c r="G190" t="n">
-        <v>-15797895.6824</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6811,24 +6355,19 @@
         <v>810798</v>
       </c>
       <c r="G191" t="n">
-        <v>-16608693.6824</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6850,24 +6389,19 @@
         <v>3272657.44</v>
       </c>
       <c r="G192" t="n">
-        <v>-13336036.2424</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6889,24 +6423,19 @@
         <v>548938</v>
       </c>
       <c r="G193" t="n">
-        <v>-13884974.2424</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6928,24 +6457,19 @@
         <v>1757686.44</v>
       </c>
       <c r="G194" t="n">
-        <v>-12127287.8024</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6967,24 +6491,19 @@
         <v>2834345.44</v>
       </c>
       <c r="G195" t="n">
-        <v>-14961633.2424</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7006,24 +6525,19 @@
         <v>286</v>
       </c>
       <c r="G196" t="n">
-        <v>-14961347.2424</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7045,24 +6559,19 @@
         <v>1052087.6403</v>
       </c>
       <c r="G197" t="n">
-        <v>-14961347.2424</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7084,24 +6593,19 @@
         <v>2662024.44</v>
       </c>
       <c r="G198" t="n">
-        <v>-17623371.6824</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7123,24 +6627,19 @@
         <v>254492</v>
       </c>
       <c r="G199" t="n">
-        <v>-17368879.6824</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7162,24 +6661,19 @@
         <v>3581861.633260791</v>
       </c>
       <c r="G200" t="n">
-        <v>-13787018.04913921</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7201,24 +6695,19 @@
         <v>2256156.652</v>
       </c>
       <c r="G201" t="n">
-        <v>-16043174.70113921</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7240,24 +6729,19 @@
         <v>2202144</v>
       </c>
       <c r="G202" t="n">
-        <v>-13841030.70113921</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7279,24 +6763,19 @@
         <v>1197517</v>
       </c>
       <c r="G203" t="n">
-        <v>-15038547.70113921</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7318,24 +6797,19 @@
         <v>2220201</v>
       </c>
       <c r="G204" t="n">
-        <v>-15038547.70113921</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7357,24 +6831,19 @@
         <v>2266360</v>
       </c>
       <c r="G205" t="n">
-        <v>-12772187.70113921</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7396,24 +6865,19 @@
         <v>1835627</v>
       </c>
       <c r="G206" t="n">
-        <v>-10936560.70113921</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7435,24 +6899,19 @@
         <v>1941066</v>
       </c>
       <c r="G207" t="n">
-        <v>-12877626.70113921</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7474,24 +6933,19 @@
         <v>1722506</v>
       </c>
       <c r="G208" t="n">
-        <v>-11155120.70113921</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7513,24 +6967,19 @@
         <v>2806842</v>
       </c>
       <c r="G209" t="n">
-        <v>-13961962.70113921</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7552,24 +7001,19 @@
         <v>838.3142</v>
       </c>
       <c r="G210" t="n">
-        <v>-13961124.38693921</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7591,24 +7035,19 @@
         <v>1755438</v>
       </c>
       <c r="G211" t="n">
-        <v>-12205686.38693921</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7630,24 +7069,19 @@
         <v>1820347.56</v>
       </c>
       <c r="G212" t="n">
-        <v>-14026033.94693921</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7669,24 +7103,19 @@
         <v>5000</v>
       </c>
       <c r="G213" t="n">
-        <v>-14021033.94693921</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7708,24 +7137,19 @@
         <v>1000</v>
       </c>
       <c r="G214" t="n">
-        <v>-14020033.94693921</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7747,24 +7171,19 @@
         <v>2713214.56</v>
       </c>
       <c r="G215" t="n">
-        <v>-16733248.50693921</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7786,24 +7205,19 @@
         <v>830015</v>
       </c>
       <c r="G216" t="n">
-        <v>-17563263.50693921</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7825,24 +7239,19 @@
         <v>1406756.56</v>
       </c>
       <c r="G217" t="n">
-        <v>-16156506.94693921</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7864,24 +7273,19 @@
         <v>2345963</v>
       </c>
       <c r="G218" t="n">
-        <v>-18502469.94693921</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7903,24 +7307,19 @@
         <v>1532348.8708</v>
       </c>
       <c r="G219" t="n">
-        <v>-16970121.07613921</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7942,24 +7341,19 @@
         <v>2704249.56</v>
       </c>
       <c r="G220" t="n">
-        <v>-19674370.63613921</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7981,24 +7375,19 @@
         <v>1373256</v>
       </c>
       <c r="G221" t="n">
-        <v>-19674370.63613921</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8020,24 +7409,19 @@
         <v>2052094</v>
       </c>
       <c r="G222" t="n">
-        <v>-19674370.63613921</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8059,24 +7443,19 @@
         <v>1578254</v>
       </c>
       <c r="G223" t="n">
-        <v>-19674370.63613921</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8098,24 +7477,19 @@
         <v>3004893</v>
       </c>
       <c r="G224" t="n">
-        <v>-19674370.63613921</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8137,24 +7511,19 @@
         <v>3653436</v>
       </c>
       <c r="G225" t="n">
-        <v>-19674370.63613921</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8176,24 +7545,19 @@
         <v>113322.0116980282</v>
       </c>
       <c r="G226" t="n">
-        <v>-19561048.62444118</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1.722</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1.025778164924506</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8215,18 +7579,19 @@
         <v>1623113</v>
       </c>
       <c r="G227" t="n">
-        <v>-21184161.62444118</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8248,18 +7613,19 @@
         <v>1946496</v>
       </c>
       <c r="G228" t="n">
-        <v>-23130657.62444118</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8281,18 +7647,19 @@
         <v>2163268</v>
       </c>
       <c r="G229" t="n">
-        <v>-25293925.62444118</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8314,18 +7681,19 @@
         <v>1547424</v>
       </c>
       <c r="G230" t="n">
-        <v>-26841349.62444118</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8347,18 +7715,19 @@
         <v>2315982.889141558</v>
       </c>
       <c r="G231" t="n">
-        <v>-26841349.62444118</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8380,18 +7749,19 @@
         <v>1514060</v>
       </c>
       <c r="G232" t="n">
-        <v>-26841349.62444118</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8413,18 +7783,19 @@
         <v>1321725</v>
       </c>
       <c r="G233" t="n">
-        <v>-25519624.62444118</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8446,18 +7817,19 @@
         <v>2574826</v>
       </c>
       <c r="G234" t="n">
-        <v>-28094450.62444118</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8479,18 +7851,19 @@
         <v>2376488</v>
       </c>
       <c r="G235" t="n">
-        <v>-28094450.62444118</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8512,18 +7885,19 @@
         <v>2167403</v>
       </c>
       <c r="G236" t="n">
-        <v>-30261853.62444118</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8545,18 +7919,19 @@
         <v>1000</v>
       </c>
       <c r="G237" t="n">
-        <v>-30260853.62444118</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8578,18 +7953,19 @@
         <v>459496</v>
       </c>
       <c r="G238" t="n">
-        <v>-30720349.62444118</v>
-      </c>
-      <c r="H238" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8611,18 +7987,19 @@
         <v>2856703</v>
       </c>
       <c r="G239" t="n">
-        <v>-30720349.62444118</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8644,18 +8021,19 @@
         <v>1652.8981</v>
       </c>
       <c r="G240" t="n">
-        <v>-30718696.72634118</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8677,18 +8055,19 @@
         <v>3387884.2959</v>
       </c>
       <c r="G241" t="n">
-        <v>-34106581.02224118</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8710,18 +8089,19 @@
         <v>1279.7468</v>
       </c>
       <c r="G242" t="n">
-        <v>-34105301.27544118</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8743,18 +8123,19 @@
         <v>850291.2662</v>
       </c>
       <c r="G243" t="n">
-        <v>-34955592.54164118</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8776,18 +8157,19 @@
         <v>647460</v>
       </c>
       <c r="G244" t="n">
-        <v>-34308132.54164118</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8809,18 +8191,19 @@
         <v>3064139</v>
       </c>
       <c r="G245" t="n">
-        <v>-31243993.54164118</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8842,18 +8225,19 @@
         <v>538688</v>
       </c>
       <c r="G246" t="n">
-        <v>-31782681.54164118</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8875,18 +8259,19 @@
         <v>31403.8904</v>
       </c>
       <c r="G247" t="n">
-        <v>-31814085.43204118</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8908,18 +8293,19 @@
         <v>359445.1142</v>
       </c>
       <c r="G248" t="n">
-        <v>-31454640.31784118</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8941,18 +8327,19 @@
         <v>554850.2068</v>
       </c>
       <c r="G249" t="n">
-        <v>-32009490.52464117</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8974,18 +8361,19 @@
         <v>653930</v>
       </c>
       <c r="G250" t="n">
-        <v>-31355560.52464117</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9007,18 +8395,19 @@
         <v>2775713</v>
       </c>
       <c r="G251" t="n">
-        <v>-34131273.52464117</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9040,18 +8429,19 @@
         <v>24333.2451</v>
       </c>
       <c r="G252" t="n">
-        <v>-34155606.76974117</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9073,18 +8463,19 @@
         <v>412668.125227907</v>
       </c>
       <c r="G253" t="n">
-        <v>-34155606.76974117</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9106,18 +8497,19 @@
         <v>2487.2652</v>
       </c>
       <c r="G254" t="n">
-        <v>-34158094.03494117</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9139,18 +8531,19 @@
         <v>2430472</v>
       </c>
       <c r="G255" t="n">
-        <v>-36588566.03494117</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9172,18 +8565,19 @@
         <v>1303621.0951</v>
       </c>
       <c r="G256" t="n">
-        <v>-35284944.93984117</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9205,18 +8599,19 @@
         <v>800</v>
       </c>
       <c r="G257" t="n">
-        <v>-35284944.93984117</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9238,18 +8633,19 @@
         <v>4000</v>
       </c>
       <c r="G258" t="n">
-        <v>-35284944.93984117</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9271,18 +8667,19 @@
         <v>11378.1729</v>
       </c>
       <c r="G259" t="n">
-        <v>-35296323.11274116</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9304,18 +8701,19 @@
         <v>35831.39534883721</v>
       </c>
       <c r="G260" t="n">
-        <v>-35260491.71739233</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9337,18 +8735,19 @@
         <v>2994603</v>
       </c>
       <c r="G261" t="n">
-        <v>-38255094.71739233</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9370,18 +8769,19 @@
         <v>775015.0252</v>
       </c>
       <c r="G262" t="n">
-        <v>-38255094.71739233</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9403,18 +8803,19 @@
         <v>161383.9803</v>
       </c>
       <c r="G263" t="n">
-        <v>-38255094.71739233</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9436,18 +8837,19 @@
         <v>500000</v>
       </c>
       <c r="G264" t="n">
-        <v>-38255094.71739233</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9469,18 +8871,19 @@
         <v>260323</v>
       </c>
       <c r="G265" t="n">
-        <v>-37994771.71739233</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9502,18 +8905,19 @@
         <v>2956380.37</v>
       </c>
       <c r="G266" t="n">
-        <v>-40951152.08739232</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9535,18 +8939,19 @@
         <v>5000</v>
       </c>
       <c r="G267" t="n">
-        <v>-40946152.08739232</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9568,18 +8973,19 @@
         <v>19282.9145</v>
       </c>
       <c r="G268" t="n">
-        <v>-40946152.08739232</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9601,18 +9007,19 @@
         <v>17085.993</v>
       </c>
       <c r="G269" t="n">
-        <v>-40929066.09439232</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9634,18 +9041,19 @@
         <v>292636.2094</v>
       </c>
       <c r="G270" t="n">
-        <v>-41221702.30379232</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9667,18 +9075,19 @@
         <v>157744.4725</v>
       </c>
       <c r="G271" t="n">
-        <v>-41379446.77629232</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9700,18 +9109,19 @@
         <v>18225.7011</v>
       </c>
       <c r="G272" t="n">
-        <v>-41379446.77629232</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9733,18 +9143,19 @@
         <v>74392.3331</v>
       </c>
       <c r="G273" t="n">
-        <v>-41453839.10939232</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9766,22 +9177,19 @@
         <v>841092.8242</v>
       </c>
       <c r="G274" t="n">
-        <v>-41453839.10939232</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="J274" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9803,26 +9211,19 @@
         <v>3048448.55</v>
       </c>
       <c r="G275" t="n">
-        <v>-38405390.55939232</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="J275" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9844,24 +9245,19 @@
         <v>1241732</v>
       </c>
       <c r="G276" t="n">
-        <v>-39647122.55939232</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1.708</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9883,18 +9279,19 @@
         <v>290</v>
       </c>
       <c r="G277" t="n">
-        <v>-39646832.55939232</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9916,18 +9313,19 @@
         <v>18422.8674</v>
       </c>
       <c r="G278" t="n">
-        <v>-39665255.42679232</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9949,18 +9347,19 @@
         <v>290</v>
       </c>
       <c r="G279" t="n">
-        <v>-39664965.42679232</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9982,18 +9381,19 @@
         <v>489323.387</v>
       </c>
       <c r="G280" t="n">
-        <v>-39175642.03979231</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10015,18 +9415,19 @@
         <v>1250.8474</v>
       </c>
       <c r="G281" t="n">
-        <v>-39175642.03979231</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10048,24 +9449,19 @@
         <v>317519.6197</v>
       </c>
       <c r="G282" t="n">
-        <v>-39493161.65949231</v>
-      </c>
-      <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1.731</v>
-      </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10087,22 +9483,19 @@
         <v>62789.56422018349</v>
       </c>
       <c r="G283" t="n">
-        <v>-39430372.09527213</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10124,22 +9517,19 @@
         <v>603681.8953</v>
       </c>
       <c r="G284" t="n">
-        <v>-40034053.99057213</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10161,22 +9551,19 @@
         <v>40095.3339</v>
       </c>
       <c r="G285" t="n">
-        <v>-39993958.65667213</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10198,24 +9585,19 @@
         <v>100397.0939798165</v>
       </c>
       <c r="G286" t="n">
-        <v>-39993958.65667213</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>1.744</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10237,22 +9619,19 @@
         <v>2883208</v>
       </c>
       <c r="G287" t="n">
-        <v>-42877166.65667213</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10274,22 +9653,19 @@
         <v>841274</v>
       </c>
       <c r="G288" t="n">
-        <v>-42877166.65667213</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10311,22 +9687,19 @@
         <v>806674</v>
       </c>
       <c r="G289" t="n">
-        <v>-42877166.65667213</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10348,24 +9721,19 @@
         <v>2897668</v>
       </c>
       <c r="G290" t="n">
-        <v>-42877166.65667213</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>1.741</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10387,22 +9755,19 @@
         <v>1499825</v>
       </c>
       <c r="G291" t="n">
-        <v>-41377341.65667213</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10424,22 +9789,19 @@
         <v>1733141</v>
       </c>
       <c r="G292" t="n">
-        <v>-43110482.65667213</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10461,22 +9823,19 @@
         <v>2327653</v>
       </c>
       <c r="G293" t="n">
-        <v>-40782829.65667213</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10498,22 +9857,19 @@
         <v>2156190</v>
       </c>
       <c r="G294" t="n">
-        <v>-42939019.65667213</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10535,22 +9891,19 @@
         <v>2962315.01</v>
       </c>
       <c r="G295" t="n">
-        <v>-45901334.66667213</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10572,22 +9925,19 @@
         <v>671864</v>
       </c>
       <c r="G296" t="n">
-        <v>-45901334.66667213</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10609,24 +9959,19 @@
         <v>496650.6418</v>
       </c>
       <c r="G297" t="n">
-        <v>-45901334.66667213</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10648,24 +9993,19 @@
         <v>65470.2835</v>
       </c>
       <c r="G298" t="n">
-        <v>-45901334.66667213</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10687,24 +10027,19 @@
         <v>3098694</v>
       </c>
       <c r="G299" t="n">
-        <v>-42802640.66667213</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10726,24 +10061,19 @@
         <v>449400</v>
       </c>
       <c r="G300" t="n">
-        <v>-43252040.66667213</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1.757</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10765,22 +10095,19 @@
         <v>946288</v>
       </c>
       <c r="G301" t="n">
-        <v>-42305752.66667213</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10802,22 +10129,19 @@
         <v>3135246.2746</v>
       </c>
       <c r="G302" t="n">
-        <v>-45440998.94127213</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10839,22 +10163,19 @@
         <v>113205.4517</v>
       </c>
       <c r="G303" t="n">
-        <v>-45327793.48957213</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10876,22 +10197,19 @@
         <v>61153.1628</v>
       </c>
       <c r="G304" t="n">
-        <v>-45266640.32677213</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
